--- a/break_even2.xlsx
+++ b/break_even2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nanebecher/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38029F1A-A029-9C45-B30E-83297971B5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF98C39C-59F0-834B-9E03-EBA4D519D335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{10AE25AE-CBB9-6C48-A0BD-F3B6274A0E75}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="287">
   <si>
     <t>Nord</t>
   </si>
@@ -758,9 +758,6 @@
     <t>ab 01.02.2026</t>
   </si>
   <si>
-    <t>60% nutzbar thermisch</t>
-  </si>
-  <si>
     <t>Barwert_0</t>
   </si>
   <si>
@@ -923,34 +920,7 @@
     <t>nein</t>
   </si>
   <si>
-    <t>Test_1</t>
-  </si>
-  <si>
-    <t>Test_2</t>
-  </si>
-  <si>
-    <t>Test_3</t>
-  </si>
-  <si>
-    <t>Test_4</t>
-  </si>
-  <si>
-    <t>Test_5</t>
-  </si>
-  <si>
-    <t>Test_6</t>
-  </si>
-  <si>
-    <t>Test_7</t>
-  </si>
-  <si>
-    <t>Test_8</t>
-  </si>
-  <si>
-    <t>Test_9</t>
-  </si>
-  <si>
-    <t>Test_10</t>
+    <t>ja</t>
   </si>
 </sst>
 </file>
@@ -1410,7 +1380,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1435,26 +1405,26 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1465,7 +1435,7 @@
         <v>194</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1473,23 +1443,23 @@
         <v>190</v>
       </c>
       <c r="D6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B7" t="s">
         <v>194</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -1497,7 +1467,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -1505,26 +1475,26 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B10" t="s">
         <v>194</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D11" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -1532,26 +1502,26 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B13" t="s">
         <v>194</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D14" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B15" t="s">
         <v>194</v>
@@ -1562,7 +1532,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D16" t="s">
         <v>0</v>
@@ -1578,7 +1548,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D18" t="s">
         <v>226</v>
@@ -1589,7 +1559,7 @@
         <v>192</v>
       </c>
       <c r="D19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1597,7 +1567,7 @@
         <v>193</v>
       </c>
       <c r="D20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -1612,8 +1582,8 @@
   </sheetPr>
   <dimension ref="A1:Q276"/>
   <sheetViews>
-    <sheetView topLeftCell="A181" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="E192" sqref="E192"/>
+    <sheetView topLeftCell="A90" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="I218" sqref="I218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1657,20 +1627,20 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D3">
         <f>'viktor-input-sheet'!D3</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D4">
         <f>'viktor-input-sheet'!D4</f>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1679,7 +1649,7 @@
       </c>
       <c r="D5">
         <f>'viktor-input-sheet'!D5</f>
-        <v>50</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1693,16 +1663,16 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D7">
         <f>'viktor-input-sheet'!D7</f>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D8" t="str">
         <f>'viktor-input-sheet'!D8</f>
@@ -1711,7 +1681,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D9" t="str">
         <f>'viktor-input-sheet'!D9</f>
@@ -1720,25 +1690,25 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D10">
         <f>'viktor-input-sheet'!D10</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D11" t="str">
         <f>'viktor-input-sheet'!D11</f>
-        <v>Nord</v>
+        <v>Süd-West</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D12" t="str">
         <f>'viktor-input-sheet'!D12</f>
@@ -1747,25 +1717,25 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D13">
         <f>'viktor-input-sheet'!D13</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D14" t="str">
         <f>'viktor-input-sheet'!D14</f>
-        <v>Nord</v>
+        <v>Süd-West</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D15">
         <f>'viktor-input-sheet'!D15</f>
@@ -1774,7 +1744,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D16" t="str">
         <f>'viktor-input-sheet'!D16</f>
@@ -1787,12 +1757,12 @@
       </c>
       <c r="D17" t="str">
         <f>'viktor-input-sheet'!D17</f>
-        <v>nein</v>
+        <v>ja</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D18" t="str">
         <f>'viktor-input-sheet'!D18</f>
@@ -1819,12 +1789,12 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B23">
         <v>0.34960000000000002</v>
@@ -1833,7 +1803,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B24">
         <v>9.3399999999999997E-2</v>
@@ -1842,7 +1812,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B25">
         <v>9.8330000000000001E-2</v>
@@ -2092,7 +2062,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B34">
         <v>0.08</v>
@@ -2113,7 +2083,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -2510,7 +2480,7 @@
       </c>
       <c r="D59" s="4">
         <f>D60+D69+D79+D88</f>
-        <v>5000</v>
+        <v>21209.259259259263</v>
       </c>
       <c r="E59" t="s">
         <v>30</v>
@@ -2544,7 +2514,7 @@
       </c>
       <c r="D60" s="4">
         <f>IF(G60=0,0,D61+D65*G60+D66+D67+D68)</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="E60" t="s">
         <v>30</v>
@@ -2554,7 +2524,7 @@
       </c>
       <c r="G60" s="6">
         <f>D7</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H60" t="s">
         <v>34</v>
@@ -2581,7 +2551,7 @@
       <c r="C61" s="6"/>
       <c r="D61" s="4">
         <f>IF(G60&gt;20,(D62+D63)*G60+D64,D62*G60+1600+D64)</f>
-        <v>6600</v>
+        <v>2583.3333333333335</v>
       </c>
       <c r="E61" t="s">
         <v>30</v>
@@ -2674,7 +2644,7 @@
       </c>
       <c r="D64" s="4">
         <f>IF($D$111&lt;=3,450, IF($D$111&lt;=6,'calculation-sheet'!$L$66,IF($D$111&lt;=9,'calculation-sheet'!$L$67, IF($D$111&lt;=15,'calculation-sheet'!$L$68,2000))))</f>
-        <v>450</v>
+        <v>983.33333333333337</v>
       </c>
       <c r="E64" t="s">
         <v>30</v>
@@ -2741,7 +2711,7 @@
       </c>
       <c r="L66">
         <f>500/3*'calculation-sheet'!D111-50</f>
-        <v>-50</v>
+        <v>1283.3333333333333</v>
       </c>
       <c r="N66" t="s">
         <v>5</v>
@@ -2772,7 +2742,7 @@
       </c>
       <c r="L67">
         <f>50/3*'calculation-sheet'!D111+850</f>
-        <v>850</v>
+        <v>983.33333333333337</v>
       </c>
       <c r="N67" t="s">
         <v>5</v>
@@ -2794,7 +2764,7 @@
       </c>
       <c r="D68" s="4">
         <f>-IF(G121="Bestand",0,160*G60)</f>
-        <v>-4800</v>
+        <v>0</v>
       </c>
       <c r="E68" t="s">
         <v>30</v>
@@ -2804,7 +2774,7 @@
       </c>
       <c r="L68">
         <f>500/6*'calculation-sheet'!D111+250</f>
-        <v>250</v>
+        <v>916.66666666666663</v>
       </c>
       <c r="N68" t="s">
         <v>6</v>
@@ -2831,7 +2801,7 @@
       </c>
       <c r="D69" s="4">
         <f>IF(G69=0,0,D70+D75*G69+D76+D77+D78)</f>
-        <v>0</v>
+        <v>12225.925925925927</v>
       </c>
       <c r="E69" t="s">
         <v>30</v>
@@ -2841,7 +2811,7 @@
       </c>
       <c r="G69" s="6">
         <f>D10</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H69" t="s">
         <v>34</v>
@@ -2873,7 +2843,7 @@
       <c r="C70" s="6"/>
       <c r="D70" s="4">
         <f>(D71+D72)*G69+D73+D74</f>
-        <v>450</v>
+        <v>10583.333333333334</v>
       </c>
       <c r="E70" t="s">
         <v>30</v>
@@ -2883,7 +2853,7 @@
       </c>
       <c r="G70" s="6" t="str">
         <f>D11</f>
-        <v>Nord</v>
+        <v>Süd-West</v>
       </c>
       <c r="J70" s="4"/>
       <c r="N70" t="s">
@@ -2966,7 +2936,7 @@
       </c>
       <c r="D73" s="4">
         <f>IF($D$111&lt;=3,450, IF($D$111&lt;=6,'calculation-sheet'!$L$66,IF($D$111&lt;=9,'calculation-sheet'!$L$67, IF($D$111&lt;=15,'calculation-sheet'!$L$68,2000))))</f>
-        <v>450</v>
+        <v>983.33333333333337</v>
       </c>
       <c r="E73" t="s">
         <v>30</v>
@@ -3069,7 +3039,7 @@
       </c>
       <c r="D77" s="4">
         <f>(D70+D76+D75*G69)*10/90</f>
-        <v>272.22222222222223</v>
+        <v>1542.5925925925926</v>
       </c>
       <c r="E77" t="s">
         <v>30</v>
@@ -3095,7 +3065,7 @@
       </c>
       <c r="D78" s="4">
         <f>-IF(G121="Bestand",0,160*G69)</f>
-        <v>0</v>
+        <v>-3200</v>
       </c>
       <c r="E78" t="s">
         <v>30</v>
@@ -3126,7 +3096,7 @@
       </c>
       <c r="D79" s="4">
         <f>IF(G79=0,0,D80+D84*G79+D85+D86+D87)</f>
-        <v>0</v>
+        <v>8983.3333333333339</v>
       </c>
       <c r="E79" t="s">
         <v>30</v>
@@ -3136,7 +3106,7 @@
       </c>
       <c r="G79" s="6">
         <f>D13</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H79" t="s">
         <v>34</v>
@@ -3163,7 +3133,7 @@
       <c r="C80" s="6"/>
       <c r="D80" s="4">
         <f>IF(G79&gt;20,(D81+D82)*G79+D83,D81*G79 + 3200 + D83)</f>
-        <v>3650</v>
+        <v>9183.3333333333339</v>
       </c>
       <c r="E80" t="s">
         <v>30</v>
@@ -3173,7 +3143,7 @@
       </c>
       <c r="G80" s="6" t="str">
         <f>D14</f>
-        <v>Nord</v>
+        <v>Süd-West</v>
       </c>
       <c r="J80" s="4"/>
       <c r="N80" t="s">
@@ -3243,7 +3213,7 @@
       </c>
       <c r="D83" s="4">
         <f>IF($D$111&lt;=3,450, IF($D$111&lt;=6,'calculation-sheet'!$L$66,IF($D$111&lt;=9,'calculation-sheet'!$L$67, IF($D$111&lt;=15,'calculation-sheet'!$L$68,2000))))</f>
-        <v>450</v>
+        <v>983.33333333333337</v>
       </c>
       <c r="E83" t="s">
         <v>30</v>
@@ -3296,7 +3266,7 @@
       </c>
       <c r="D87" s="4">
         <f>-IF(G121="Bestand",0,190*G79)</f>
-        <v>0</v>
+        <v>-3800</v>
       </c>
       <c r="E87" t="s">
         <v>30</v>
@@ -3340,7 +3310,7 @@
       <c r="C89" s="6"/>
       <c r="D89" s="4">
         <f>(D90+D91)*G88+D92+D93</f>
-        <v>450</v>
+        <v>983.33333333333337</v>
       </c>
       <c r="E89" t="s">
         <v>30</v>
@@ -3396,7 +3366,7 @@
       </c>
       <c r="D92" s="4">
         <f>IF($D$111&lt;=3,450, IF($D$111&lt;=6,'calculation-sheet'!$L$66,IF($D$111&lt;=9,'calculation-sheet'!$L$67, IF($D$111&lt;=15,'calculation-sheet'!$L$68,2000))))</f>
-        <v>450</v>
+        <v>983.33333333333337</v>
       </c>
       <c r="E92" t="s">
         <v>30</v>
@@ -3451,7 +3421,7 @@
       </c>
       <c r="D96" s="4">
         <f>(D89+D95+D94*G88)*10/90</f>
-        <v>272.22222222222223</v>
+        <v>331.48148148148152</v>
       </c>
       <c r="E96" t="s">
         <v>30</v>
@@ -3557,7 +3527,7 @@
       </c>
       <c r="D104" s="4">
         <f>D64</f>
-        <v>450</v>
+        <v>983.33333333333337</v>
       </c>
       <c r="E104" t="s">
         <v>145</v>
@@ -3612,7 +3582,7 @@
       </c>
       <c r="D110" s="4">
         <f>G60+G69+G79+G88</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E110" t="s">
         <v>34</v>
@@ -3622,8 +3592,8 @@
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="6"/>
       <c r="D111" s="4">
-        <f>D110*D42</f>
-        <v>0</v>
+        <f>D110*0.2</f>
+        <v>8</v>
       </c>
       <c r="E111" t="s">
         <v>109</v>
@@ -3713,7 +3683,7 @@
       </c>
       <c r="G119">
         <f>D3</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119" s="4"/>
     </row>
@@ -3733,7 +3703,7 @@
       </c>
       <c r="G120">
         <f>D4</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H120" t="s">
         <v>55</v>
@@ -3767,7 +3737,7 @@
       <c r="A122" s="6"/>
       <c r="D122">
         <f>IF(G121="Neubau",G122*D120,0)+IF(G121="Bestand",G122*D121,0)+IF(G121="Sanierung",G122*D120,0)</f>
-        <v>2250</v>
+        <v>18000</v>
       </c>
       <c r="E122" t="s">
         <v>56</v>
@@ -3777,7 +3747,7 @@
       </c>
       <c r="G122">
         <f>D5</f>
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="H122" t="s">
         <v>34</v>
@@ -3797,7 +3767,7 @@
       </c>
       <c r="D124">
         <f>IF(G119&gt;2,G119*C128,G120*C126)</f>
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E124" t="s">
         <v>56</v>
@@ -3854,7 +3824,7 @@
       </c>
       <c r="D130">
         <f>IF(G119&gt;2,G119*C139,IF(G120=B132,C132,0)+IF(G120=B133,C133,0)+IF(G120=B134,C134,0)+IF(G120=B135,C135,0)+IF(G120=B136,C136,0)+IF(G120=B137,C137,0))</f>
-        <v>4040</v>
+        <v>8100</v>
       </c>
       <c r="E130" t="s">
         <v>56</v>
@@ -4116,7 +4086,7 @@
       </c>
       <c r="D153">
         <f>IF(H153="ja", 0.6,0.3)</f>
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F153" t="s">
         <v>146</v>
@@ -4124,7 +4094,7 @@
       <c r="G153"/>
       <c r="H153" t="str">
         <f>D17</f>
-        <v>nein</v>
+        <v>ja</v>
       </c>
       <c r="J153" s="4"/>
     </row>
@@ -4205,7 +4175,7 @@
       </c>
       <c r="D163" s="5">
         <f>-(600+IF(D111&gt;10,6000,600*D111)+IF(D111&gt;15,3000,250*8))</f>
-        <v>-2600</v>
+        <v>-7400</v>
       </c>
       <c r="J163" s="4"/>
     </row>
@@ -4302,7 +4272,7 @@
       </c>
       <c r="E176" cm="1">
         <f t="array" ref="E176">VLOOKUP('calculation-sheet'!G61&amp;'calculation-sheet'!G62,CHOOSE({1,2},N28:N81&amp;P28:P81,Q28:Q81),2,0)/100*$D$114*$D$115*G60+VLOOKUP(G80&amp;G81,CHOOSE({1,2},N28:N81&amp;P28:P81,Q28:Q81),2,0)/100*'calculation-sheet'!$D$114*'calculation-sheet'!$D$115*'calculation-sheet'!G79</f>
-        <v>6000</v>
+        <v>2724</v>
       </c>
       <c r="F176" t="s">
         <v>76</v>
@@ -4318,7 +4288,7 @@
       </c>
       <c r="E177">
         <f>E178+E179</f>
-        <v>0</v>
+        <v>17271.800000000003</v>
       </c>
       <c r="F177" t="s">
         <v>76</v>
@@ -4334,7 +4304,7 @@
       </c>
       <c r="E178" cm="1">
         <f t="array" ref="E178">VLOOKUP(G70&amp;G71,CHOOSE({1,2},N28:N81&amp;P28:P81,Q28:Q81),2,0)/100*'calculation-sheet'!G69*'calculation-sheet'!D116+VLOOKUP(G89&amp;G90,CHOOSE({1,2},N28:N81&amp;P28:P81,Q28:Q81),2,0)/100*G88*D116</f>
-        <v>0</v>
+        <v>13475.800000000001</v>
       </c>
       <c r="F178" t="s">
         <v>76</v>
@@ -4350,7 +4320,7 @@
       </c>
       <c r="E179" cm="1">
         <f t="array" ref="E179">VLOOKUP(G70&amp;G71,CHOOSE({1,2},N28:N81&amp;P28:P81,Q28:Q81),2,0)/100*D114*D115*G69+VLOOKUP(G89&amp;G90,CHOOSE({1,2},N28:N81&amp;P28:P81,Q28:Q81),2,0)/100*D114*D115*G88</f>
-        <v>0</v>
+        <v>3796.0000000000009</v>
       </c>
       <c r="F179" t="s">
         <v>76</v>
@@ -4413,7 +4383,7 @@
       </c>
       <c r="E187">
         <f>E188+E189</f>
-        <v>7290</v>
+        <v>29100</v>
       </c>
       <c r="F187" t="s">
         <v>76</v>
@@ -4429,7 +4399,7 @@
       </c>
       <c r="E188">
         <f>D130</f>
-        <v>4040</v>
+        <v>8100</v>
       </c>
       <c r="F188" t="s">
         <v>76</v>
@@ -4445,7 +4415,7 @@
       </c>
       <c r="E189">
         <f>D124+D122</f>
-        <v>3250</v>
+        <v>21000</v>
       </c>
       <c r="F189" t="s">
         <v>76</v>
@@ -4473,7 +4443,7 @@
       </c>
       <c r="E192">
         <f>D153</f>
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="G192"/>
       <c r="J192"/>
@@ -4486,7 +4456,7 @@
       </c>
       <c r="E193">
         <f>IF((E176*E192+E179*E192)&gt;E188,E188,E176*E192+E179*E192)</f>
-        <v>1800</v>
+        <v>3912</v>
       </c>
       <c r="F193" t="s">
         <v>76</v>
@@ -4502,7 +4472,7 @@
       </c>
       <c r="E194">
         <f>E176+E179-E193</f>
-        <v>4200</v>
+        <v>2608.0000000000009</v>
       </c>
       <c r="F194" t="s">
         <v>76</v>
@@ -4517,15 +4487,13 @@
         <v>142</v>
       </c>
       <c r="E195">
-        <f>IF(E178*0.6&gt;E189,E189,E178*0.6)</f>
-        <v>0</v>
+        <f>IF(E178&lt;E189*0.6,E178,E189*0.6)</f>
+        <v>12600</v>
       </c>
       <c r="F195" t="s">
         <v>76</v>
       </c>
-      <c r="G195" t="s">
-        <v>232</v>
-      </c>
+      <c r="G195"/>
       <c r="J195"/>
       <c r="M195"/>
     </row>
@@ -4567,7 +4535,7 @@
       </c>
       <c r="E200">
         <f>E194*C27</f>
-        <v>344.4</v>
+        <v>213.85600000000005</v>
       </c>
       <c r="G200"/>
       <c r="H200" s="6" t="s">
@@ -4585,7 +4553,7 @@
       </c>
       <c r="E201">
         <f>E194*B34</f>
-        <v>336</v>
+        <v>208.64000000000007</v>
       </c>
       <c r="G201"/>
       <c r="J201"/>
@@ -4597,7 +4565,7 @@
       </c>
       <c r="E202">
         <f>E193*B23</f>
-        <v>629.28000000000009</v>
+        <v>1367.6352000000002</v>
       </c>
       <c r="G202"/>
       <c r="J202"/>
@@ -4609,7 +4577,7 @@
       </c>
       <c r="E203">
         <f>IF(D6="Heizöl",E195*B25,E195*B24)</f>
-        <v>0</v>
+        <v>1176.8399999999999</v>
       </c>
       <c r="G203"/>
       <c r="J203"/>
@@ -4633,7 +4601,7 @@
       </c>
       <c r="E205" s="5">
         <f>D102*D110</f>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G205"/>
       <c r="J205"/>
@@ -4657,7 +4625,7 @@
       </c>
       <c r="E207" s="5">
         <f>D104</f>
-        <v>450</v>
+        <v>983.33333333333337</v>
       </c>
       <c r="G207"/>
       <c r="J207"/>
@@ -4707,23 +4675,23 @@
       </c>
       <c r="C211">
         <f>D59+IF(H153="ja",D157,0)+IF(D161="ja",D163+D165,0)</f>
-        <v>5000</v>
+        <v>26209.259259259263</v>
       </c>
       <c r="D211">
         <f t="shared" ref="D211:D241" si="5">B211-C211</f>
-        <v>-5000</v>
+        <v>-26209.259259259263</v>
       </c>
       <c r="E211">
-        <f>1/((1+$D$51)^A211)</f>
+        <f>1/((1+0.05)^A211)</f>
         <v>1</v>
       </c>
       <c r="F211">
         <f>D211*E211</f>
-        <v>-5000</v>
+        <v>-26209.259259259263</v>
       </c>
       <c r="G211">
         <f>F211</f>
-        <v>-5000</v>
+        <v>-26209.259259259263</v>
       </c>
       <c r="J211"/>
       <c r="M211"/>
@@ -4734,7 +4702,7 @@
       </c>
       <c r="B212">
         <f>$E$200+$E$202+$E$203</f>
-        <v>973.68000000000006</v>
+        <v>2758.3312000000001</v>
       </c>
       <c r="C212">
         <f>$E$204+IF(ISEVEN(A212),$E$205,0)</f>
@@ -4742,19 +4710,19 @@
       </c>
       <c r="D212">
         <f t="shared" si="5"/>
-        <v>873.68000000000006</v>
+        <v>2658.3312000000001</v>
       </c>
       <c r="E212">
-        <f t="shared" ref="E212:E241" si="6">1/((1+$D$51)^A212)</f>
-        <v>1</v>
+        <f t="shared" ref="E212:E241" si="6">1/((1+0.05)^A212)</f>
+        <v>0.95238095238095233</v>
       </c>
       <c r="F212">
         <f>D212*E212</f>
-        <v>873.68000000000006</v>
+        <v>2531.7440000000001</v>
       </c>
       <c r="G212">
         <f>G211+F212</f>
-        <v>-4126.32</v>
+        <v>-23677.515259259264</v>
       </c>
       <c r="J212"/>
       <c r="M212"/>
@@ -4765,27 +4733,27 @@
       </c>
       <c r="B213">
         <f>($E$200+$E$202+$E$203)*(100-0.4*(A213-1))/100</f>
-        <v>969.78528000000006</v>
+        <v>2747.2978751999999</v>
       </c>
       <c r="C213">
         <f t="shared" ref="C213:C240" si="7">$E$204+IF(ISEVEN(A213),$E$205,0)</f>
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D213">
         <f t="shared" si="5"/>
-        <v>809.78528000000006</v>
+        <v>2567.2978751999999</v>
       </c>
       <c r="E213">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.90702947845804982</v>
       </c>
       <c r="F213">
         <f t="shared" ref="F213:F241" si="8">D213*E213</f>
-        <v>809.78528000000006</v>
+        <v>2328.6148527891155</v>
       </c>
       <c r="G213">
         <f>G212+F213</f>
-        <v>-3316.5347199999997</v>
+        <v>-21348.900406470148</v>
       </c>
       <c r="J213"/>
       <c r="M213"/>
@@ -4796,7 +4764,7 @@
       </c>
       <c r="B214">
         <f t="shared" ref="B214:B229" si="9">($E$200+$E$202+$E$203)*(100-0.4*(A214-1))/100</f>
-        <v>965.89056000000016</v>
+        <v>2736.2645504000002</v>
       </c>
       <c r="C214">
         <f>$E$204+IF(ISEVEN(A214),$E$205,0)+E206</f>
@@ -4804,19 +4772,19 @@
       </c>
       <c r="D214">
         <f t="shared" si="5"/>
-        <v>665.89056000000016</v>
+        <v>2436.2645504000002</v>
       </c>
       <c r="E214">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.86383759853147601</v>
       </c>
       <c r="F214">
         <f t="shared" si="8"/>
-        <v>665.89056000000016</v>
+        <v>2104.5369186049024</v>
       </c>
       <c r="G214">
         <f>G213+F214</f>
-        <v>-2650.6441599999994</v>
+        <v>-19244.363487865245</v>
       </c>
       <c r="J214"/>
       <c r="M214"/>
@@ -4827,27 +4795,27 @@
       </c>
       <c r="B215">
         <f t="shared" si="9"/>
-        <v>961.99584000000004</v>
+        <v>2725.2312256</v>
       </c>
       <c r="C215">
         <f t="shared" si="7"/>
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D215">
         <f t="shared" si="5"/>
-        <v>801.99584000000004</v>
+        <v>2545.2312256</v>
       </c>
       <c r="E215">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.82270247479188197</v>
       </c>
       <c r="F215">
         <f t="shared" si="8"/>
-        <v>801.99584000000004</v>
+        <v>2093.9680282186951</v>
       </c>
       <c r="G215">
         <f t="shared" ref="G215:G241" si="10">G214+F215</f>
-        <v>-1848.6483199999993</v>
+        <v>-17150.395459646548</v>
       </c>
       <c r="J215"/>
       <c r="M215"/>
@@ -4858,7 +4826,7 @@
       </c>
       <c r="B216">
         <f t="shared" si="9"/>
-        <v>958.10112000000004</v>
+        <v>2714.1979007999998</v>
       </c>
       <c r="C216">
         <f t="shared" si="7"/>
@@ -4866,19 +4834,19 @@
       </c>
       <c r="D216">
         <f t="shared" si="5"/>
-        <v>858.10112000000004</v>
+        <v>2614.1979007999998</v>
       </c>
       <c r="E216">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.78352616646845896</v>
       </c>
       <c r="F216">
         <f t="shared" si="8"/>
-        <v>858.10112000000004</v>
+        <v>2048.2924596037165</v>
       </c>
       <c r="G216">
         <f t="shared" si="10"/>
-        <v>-990.54719999999929</v>
+        <v>-15102.103000042833</v>
       </c>
       <c r="J216"/>
       <c r="M216"/>
@@ -4889,27 +4857,27 @@
       </c>
       <c r="B217">
         <f t="shared" si="9"/>
-        <v>954.20640000000003</v>
+        <v>2703.1645760000001</v>
       </c>
       <c r="C217">
         <f>$E$204+IF(ISEVEN(A217),$E$205,0)+E206</f>
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="D217">
         <f t="shared" si="5"/>
-        <v>594.20640000000003</v>
+        <v>2323.1645760000001</v>
       </c>
       <c r="E217">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.74621539663662761</v>
       </c>
       <c r="F217">
         <f t="shared" si="8"/>
-        <v>594.20640000000003</v>
+        <v>1733.5811755320028</v>
       </c>
       <c r="G217">
         <f t="shared" si="10"/>
-        <v>-396.34079999999926</v>
+        <v>-13368.52182451083</v>
       </c>
       <c r="J217"/>
       <c r="M217"/>
@@ -4920,7 +4888,7 @@
       </c>
       <c r="B218">
         <f t="shared" si="9"/>
-        <v>950.31168000000002</v>
+        <v>2692.1312512</v>
       </c>
       <c r="C218">
         <f t="shared" si="7"/>
@@ -4928,19 +4896,19 @@
       </c>
       <c r="D218">
         <f t="shared" si="5"/>
-        <v>850.31168000000002</v>
+        <v>2592.1312512</v>
       </c>
       <c r="E218">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.71068133013012147</v>
       </c>
       <c r="F218">
         <f t="shared" si="8"/>
-        <v>850.31168000000002</v>
+        <v>1842.179285474672</v>
       </c>
       <c r="G218">
         <f t="shared" si="10"/>
-        <v>453.97088000000076</v>
+        <v>-11526.342539036157</v>
       </c>
       <c r="J218"/>
       <c r="M218"/>
@@ -4951,27 +4919,27 @@
       </c>
       <c r="B219">
         <f t="shared" si="9"/>
-        <v>946.41696000000013</v>
+        <v>2681.0979263999998</v>
       </c>
       <c r="C219">
         <f t="shared" si="7"/>
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D219">
         <f t="shared" si="5"/>
-        <v>786.41696000000013</v>
+        <v>2501.0979263999998</v>
       </c>
       <c r="E219">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.67683936202868722</v>
       </c>
       <c r="F219">
         <f t="shared" si="8"/>
-        <v>786.41696000000013</v>
+        <v>1692.8415248758483</v>
       </c>
       <c r="G219">
         <f t="shared" si="10"/>
-        <v>1240.3878400000008</v>
+        <v>-9833.5010141603088</v>
       </c>
       <c r="J219"/>
       <c r="M219"/>
@@ -4982,7 +4950,7 @@
       </c>
       <c r="B220">
         <f t="shared" si="9"/>
-        <v>942.52224000000001</v>
+        <v>2670.0646016000001</v>
       </c>
       <c r="C220">
         <f>$E$204+IF(ISEVEN(A220),$E$205,0)+E206</f>
@@ -4990,19 +4958,19 @@
       </c>
       <c r="D220">
         <f t="shared" si="5"/>
-        <v>642.52224000000001</v>
+        <v>2370.0646016000001</v>
       </c>
       <c r="E220">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.64460891621779726</v>
       </c>
       <c r="F220">
         <f t="shared" si="8"/>
-        <v>642.52224000000001</v>
+        <v>1527.7647742035415</v>
       </c>
       <c r="G220">
         <f t="shared" si="10"/>
-        <v>1882.9100800000008</v>
+        <v>-8305.7362399567683</v>
       </c>
       <c r="J220"/>
       <c r="M220"/>
@@ -5013,27 +4981,27 @@
       </c>
       <c r="B221">
         <f t="shared" si="9"/>
-        <v>938.62752000000012</v>
+        <v>2659.0312768000003</v>
       </c>
       <c r="C221">
         <f t="shared" si="7"/>
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D221">
         <f t="shared" si="5"/>
-        <v>778.62752000000012</v>
+        <v>2479.0312768000003</v>
       </c>
       <c r="E221">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.61391325354075932</v>
       </c>
       <c r="F221">
         <f t="shared" si="8"/>
-        <v>778.62752000000012</v>
+        <v>1521.9101567695909</v>
       </c>
       <c r="G221">
         <f t="shared" si="10"/>
-        <v>2661.537600000001</v>
+        <v>-6783.8260831871776</v>
       </c>
       <c r="J221"/>
       <c r="M221"/>
@@ -5044,7 +5012,7 @@
       </c>
       <c r="B222">
         <f t="shared" si="9"/>
-        <v>934.7328</v>
+        <v>2647.9979519999997</v>
       </c>
       <c r="C222">
         <f t="shared" si="7"/>
@@ -5052,19 +5020,19 @@
       </c>
       <c r="D222">
         <f t="shared" si="5"/>
-        <v>834.7328</v>
+        <v>2547.9979519999997</v>
       </c>
       <c r="E222">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.5846792890864374</v>
       </c>
       <c r="F222">
         <f t="shared" si="8"/>
-        <v>834.7328</v>
+        <v>1489.7616311690583</v>
       </c>
       <c r="G222">
         <f t="shared" si="10"/>
-        <v>3496.2704000000012</v>
+        <v>-5294.0644520181195</v>
       </c>
       <c r="J222"/>
       <c r="M222"/>
@@ -5075,27 +5043,27 @@
       </c>
       <c r="B223">
         <f t="shared" si="9"/>
-        <v>930.83807999999999</v>
+        <v>2636.9646272</v>
       </c>
       <c r="C223">
         <f>$E$204+IF(ISEVEN(A223),$E$205,0)+E206</f>
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="D223">
         <f t="shared" si="5"/>
-        <v>570.83807999999999</v>
+        <v>2256.9646272</v>
       </c>
       <c r="E223">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.5568374181775595</v>
       </c>
       <c r="F223">
         <f t="shared" si="8"/>
-        <v>570.83807999999999</v>
+        <v>1256.762355928126</v>
       </c>
       <c r="G223">
         <f t="shared" si="10"/>
-        <v>4067.1084800000012</v>
+        <v>-4037.3020960899935</v>
       </c>
       <c r="J223"/>
       <c r="M223"/>
@@ -5106,27 +5074,27 @@
       </c>
       <c r="B224">
         <f t="shared" si="9"/>
-        <v>926.9433600000001</v>
+        <v>2625.9313024000003</v>
       </c>
       <c r="C224">
         <f>$E$204+IF(ISEVEN(A224),$E$205,0)+E207</f>
-        <v>550</v>
+        <v>1083.3333333333335</v>
       </c>
       <c r="D224">
         <f t="shared" si="5"/>
-        <v>376.9433600000001</v>
+        <v>1542.5979690666668</v>
       </c>
       <c r="E224">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.53032135064529462</v>
       </c>
       <c r="F224">
         <f t="shared" si="8"/>
-        <v>376.9433600000001</v>
+        <v>818.07263845812315</v>
       </c>
       <c r="G224">
         <f t="shared" si="10"/>
-        <v>4444.051840000001</v>
+        <v>-3219.2294576318704</v>
       </c>
       <c r="J224"/>
       <c r="M224"/>
@@ -5137,27 +5105,27 @@
       </c>
       <c r="B225">
         <f t="shared" si="9"/>
-        <v>923.04863999999998</v>
+        <v>2614.8979775999996</v>
       </c>
       <c r="C225">
         <f t="shared" si="7"/>
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D225">
         <f t="shared" si="5"/>
-        <v>763.04863999999998</v>
+        <v>2434.8979775999996</v>
       </c>
       <c r="E225">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.50506795299551888</v>
       </c>
       <c r="F225">
         <f t="shared" si="8"/>
-        <v>763.04863999999998</v>
+        <v>1229.7889372993607</v>
       </c>
       <c r="G225">
         <f t="shared" si="10"/>
-        <v>5207.100480000001</v>
+        <v>-1989.4405203325098</v>
       </c>
       <c r="J225"/>
       <c r="M225"/>
@@ -5168,7 +5136,7 @@
       </c>
       <c r="B226">
         <f t="shared" si="9"/>
-        <v>919.15392000000008</v>
+        <v>2603.8646528000004</v>
       </c>
       <c r="C226">
         <f>$E$204+IF(ISEVEN(A226),$E$205,0)+E206</f>
@@ -5176,19 +5144,19 @@
       </c>
       <c r="D226">
         <f t="shared" si="5"/>
-        <v>619.15392000000008</v>
+        <v>2303.8646528000004</v>
       </c>
       <c r="E226">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.48101709809097021</v>
       </c>
       <c r="F226">
         <f t="shared" si="8"/>
-        <v>619.15392000000008</v>
+        <v>1108.1982896842169</v>
       </c>
       <c r="G226">
         <f t="shared" si="10"/>
-        <v>5826.2544000000007</v>
+        <v>-881.24223064829289</v>
       </c>
       <c r="J226"/>
       <c r="M226"/>
@@ -5199,27 +5167,27 @@
       </c>
       <c r="B227">
         <f t="shared" si="9"/>
-        <v>915.25920000000008</v>
+        <v>2592.8313280000002</v>
       </c>
       <c r="C227">
         <f t="shared" si="7"/>
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D227">
         <f t="shared" si="5"/>
-        <v>755.25920000000008</v>
+        <v>2412.8313280000002</v>
       </c>
       <c r="E227">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.45811152199140021</v>
       </c>
       <c r="F227">
         <f t="shared" si="8"/>
-        <v>755.25920000000008</v>
+        <v>1105.3458319786114</v>
       </c>
       <c r="G227">
         <f t="shared" si="10"/>
-        <v>6581.5136000000011</v>
+        <v>224.1036013303185</v>
       </c>
       <c r="J227"/>
       <c r="M227"/>
@@ -5230,7 +5198,7 @@
       </c>
       <c r="B228">
         <f t="shared" si="9"/>
-        <v>911.36448000000007</v>
+        <v>2581.7980031999996</v>
       </c>
       <c r="C228">
         <f t="shared" si="7"/>
@@ -5238,19 +5206,19 @@
       </c>
       <c r="D228">
         <f t="shared" si="5"/>
-        <v>811.36448000000007</v>
+        <v>2481.7980031999996</v>
       </c>
       <c r="E228">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.43629668761085727</v>
       </c>
       <c r="F228">
         <f t="shared" si="8"/>
-        <v>811.36448000000007</v>
+        <v>1082.8002481153997</v>
       </c>
       <c r="G228">
         <f t="shared" si="10"/>
-        <v>7392.8780800000013</v>
+        <v>1306.9038494457182</v>
       </c>
       <c r="J228"/>
       <c r="M228"/>
@@ -5261,27 +5229,27 @@
       </c>
       <c r="B229">
         <f t="shared" si="9"/>
-        <v>907.46976000000006</v>
+        <v>2570.7646784000003</v>
       </c>
       <c r="C229">
         <f>$E$204+IF(ISEVEN(A229),$E$205,0)+E206</f>
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="D229">
         <f t="shared" si="5"/>
-        <v>547.46976000000006</v>
+        <v>2190.7646784000003</v>
       </c>
       <c r="E229">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.41552065486748313</v>
       </c>
       <c r="F229">
         <f t="shared" si="8"/>
-        <v>547.46976000000006</v>
+        <v>910.30797382931917</v>
       </c>
       <c r="G229">
         <f t="shared" si="10"/>
-        <v>7940.3478400000013</v>
+        <v>2217.2118232750372</v>
       </c>
       <c r="J229"/>
       <c r="M229"/>
@@ -5292,7 +5260,7 @@
       </c>
       <c r="B230">
         <f>($E$200+$E$202+$E$203)*(100-0.4*(A230-1))/100</f>
-        <v>903.57504000000006</v>
+        <v>2559.7313535999997</v>
       </c>
       <c r="C230">
         <f t="shared" si="7"/>
@@ -5300,19 +5268,19 @@
       </c>
       <c r="D230">
         <f t="shared" si="5"/>
-        <v>803.57504000000006</v>
+        <v>2459.7313535999997</v>
       </c>
       <c r="E230">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.39573395701665059</v>
       </c>
       <c r="F230">
         <f t="shared" si="8"/>
-        <v>803.57504000000006</v>
+        <v>973.39922175805009</v>
       </c>
       <c r="G230">
         <f>G229+F230</f>
-        <v>8743.9228800000019</v>
+        <v>3190.6110450330871</v>
       </c>
       <c r="J230"/>
       <c r="M230"/>
@@ -5323,27 +5291,27 @@
       </c>
       <c r="B231">
         <f>($E$200+$E$202+$E$203)*(100-0.4*(A231-1))/100</f>
-        <v>899.68032000000005</v>
+        <v>2548.6980288000004</v>
       </c>
       <c r="C231">
         <f t="shared" si="7"/>
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D231">
         <f t="shared" si="5"/>
-        <v>739.68032000000005</v>
+        <v>2368.6980288000004</v>
       </c>
       <c r="E231">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.37688948287300061</v>
       </c>
       <c r="F231">
         <f>D231*E231</f>
-        <v>739.68032000000005</v>
+        <v>892.73737515672804</v>
       </c>
       <c r="G231">
         <f t="shared" si="10"/>
-        <v>9483.6032000000014</v>
+        <v>4083.348420189815</v>
       </c>
       <c r="J231"/>
       <c r="M231"/>
@@ -5354,7 +5322,7 @@
       </c>
       <c r="B232">
         <f>($E$201+$E$202+$E$203)*(100-0.4*(A232-1))/100</f>
-        <v>888.05760000000009</v>
+        <v>2532.865984</v>
       </c>
       <c r="C232">
         <f>$E$204+IF(ISEVEN(A232),$E$205,0)+E206</f>
@@ -5362,19 +5330,19 @@
       </c>
       <c r="D232">
         <f t="shared" si="5"/>
-        <v>588.05760000000009</v>
+        <v>2232.865984</v>
       </c>
       <c r="E232">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.35894236464095297</v>
       </c>
       <c r="F232">
         <f t="shared" si="8"/>
-        <v>588.05760000000009</v>
+        <v>801.47019622330822</v>
       </c>
       <c r="G232">
         <f t="shared" si="10"/>
-        <v>10071.660800000001</v>
+        <v>4884.818616413123</v>
       </c>
       <c r="J232"/>
       <c r="M232"/>
@@ -5385,27 +5353,27 @@
       </c>
       <c r="B233">
         <f t="shared" ref="B233:B241" si="11">($E$201+$E$202+$E$203)*(100-0.4*(A233-1))/100</f>
-        <v>884.19648000000007</v>
+        <v>2521.8535231999999</v>
       </c>
       <c r="C233">
         <f t="shared" si="7"/>
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D233">
         <f t="shared" si="5"/>
-        <v>724.19648000000007</v>
+        <v>2341.8535231999999</v>
       </c>
       <c r="E233">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.3418498710866219</v>
       </c>
       <c r="F233">
         <f t="shared" si="8"/>
-        <v>724.19648000000007</v>
+        <v>800.56232500967133</v>
       </c>
       <c r="G233">
         <f t="shared" si="10"/>
-        <v>10795.857280000002</v>
+        <v>5685.3809414227944</v>
       </c>
       <c r="J233"/>
       <c r="M233"/>
@@ -5416,7 +5384,7 @@
       </c>
       <c r="B234">
         <f t="shared" si="11"/>
-        <v>880.33536000000004</v>
+        <v>2510.8410624000003</v>
       </c>
       <c r="C234">
         <f t="shared" si="7"/>
@@ -5424,19 +5392,19 @@
       </c>
       <c r="D234">
         <f t="shared" si="5"/>
-        <v>780.33536000000004</v>
+        <v>2410.8410624000003</v>
       </c>
       <c r="E234">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.32557130579678267</v>
       </c>
       <c r="F234">
         <f t="shared" si="8"/>
-        <v>780.33536000000004</v>
+        <v>784.90067275407091</v>
       </c>
       <c r="G234">
         <f t="shared" si="10"/>
-        <v>11576.192640000001</v>
+        <v>6470.2816141768653</v>
       </c>
       <c r="J234"/>
       <c r="M234"/>
@@ -5447,27 +5415,27 @@
       </c>
       <c r="B235">
         <f t="shared" si="11"/>
-        <v>876.47424000000001</v>
+        <v>2499.8286016000002</v>
       </c>
       <c r="C235">
         <f>$E$204+IF(ISEVEN(A235),$E$205,0)+E206</f>
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="D235">
         <f t="shared" si="5"/>
-        <v>516.47424000000001</v>
+        <v>2119.8286016000002</v>
       </c>
       <c r="E235">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.31006791028265024</v>
       </c>
       <c r="F235">
         <f t="shared" si="8"/>
-        <v>516.47424000000001</v>
+        <v>657.29082465550482</v>
       </c>
       <c r="G235">
         <f t="shared" si="10"/>
-        <v>12092.666880000001</v>
+        <v>7127.5724388323706</v>
       </c>
       <c r="J235"/>
       <c r="M235"/>
@@ -5478,27 +5446,27 @@
       </c>
       <c r="B236">
         <f t="shared" si="11"/>
-        <v>872.61312000000021</v>
+        <v>2488.8161408000001</v>
       </c>
       <c r="C236">
         <f>$E$204+IF(ISEVEN(A236),$E$205,0)+E207</f>
-        <v>550</v>
+        <v>1083.3333333333335</v>
       </c>
       <c r="D236">
         <f t="shared" si="5"/>
-        <v>322.61312000000021</v>
+        <v>1405.4828074666666</v>
       </c>
       <c r="E236">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.29530277169776209</v>
       </c>
       <c r="F236">
         <f t="shared" si="8"/>
-        <v>322.61312000000021</v>
+        <v>415.04296861845876</v>
       </c>
       <c r="G236">
         <f t="shared" si="10"/>
-        <v>12415.28</v>
+        <v>7542.6154074508295</v>
       </c>
       <c r="J236"/>
       <c r="M236"/>
@@ -5509,27 +5477,27 @@
       </c>
       <c r="B237">
         <f t="shared" si="11"/>
-        <v>868.75200000000007</v>
+        <v>2477.80368</v>
       </c>
       <c r="C237">
         <f t="shared" si="7"/>
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D237">
         <f t="shared" si="5"/>
-        <v>708.75200000000007</v>
+        <v>2297.80368</v>
       </c>
       <c r="E237">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.28124073495024959</v>
       </c>
       <c r="F237">
         <f t="shared" si="8"/>
-        <v>708.75200000000007</v>
+        <v>646.23599573458807</v>
       </c>
       <c r="G237">
         <f t="shared" si="10"/>
-        <v>13124.032000000001</v>
+        <v>8188.8514031854174</v>
       </c>
       <c r="J237"/>
       <c r="M237"/>
@@ -5540,7 +5508,7 @@
       </c>
       <c r="B238">
         <f t="shared" si="11"/>
-        <v>864.89088000000004</v>
+        <v>2466.7912191999999</v>
       </c>
       <c r="C238">
         <f>$E$204+IF(ISEVEN(A238),$E$205,0)+E206</f>
@@ -5548,19 +5516,19 @@
       </c>
       <c r="D238">
         <f t="shared" si="5"/>
-        <v>564.89088000000004</v>
+        <v>2166.7912191999999</v>
       </c>
       <c r="E238">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.2678483190002377</v>
       </c>
       <c r="F238">
         <f t="shared" si="8"/>
-        <v>564.89088000000004</v>
+        <v>580.37138568719558</v>
       </c>
       <c r="G238">
         <f t="shared" si="10"/>
-        <v>13688.922880000002</v>
+        <v>8769.2227888726138</v>
       </c>
       <c r="I238" s="1" t="s">
         <v>225</v>
@@ -5568,7 +5536,7 @@
       <c r="J238" s="1"/>
       <c r="K238" s="1">
         <f>IF(G211&gt;0,A211,IF(G212&gt;0,A212,IF(G213&gt;0,A213,IF(G214&gt;0,A214,IF(G215&gt;0,A215,IF(G216&gt;0,A216,IF(G217&gt;0,A217,IF(G218&gt;0,A218,IF(G219&gt;0,A219, IF(G220&gt;0,A220, IF(G221&gt;0,A221,IF(G222&gt;0,A222,IF(G223&gt;0,763,IF(G224&gt;0,A224,IF(G225&gt;0,A225,IF(G226&gt;0,A226,IF(G227&gt;0,A227,IF(G228&gt;0,A228,IF(G229&gt;0,A229, IF(G230&gt;0,A230, IF(G231&gt;0,A231,IF(G232&gt;0,A232,IF(G233&gt;0,A233,IF(G234&gt;0,A234,IF(G235&gt;0,A235,IF(G236&gt;0,A236,IF(G237&gt;0,A237,IF(G238&gt;0,A238,IF(G239&gt;0,A239, IF(G240&gt;0,A240, IF(G241&gt;0,A241, 0)))))))))))))))))))))))))))))))</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="M238"/>
     </row>
@@ -5578,27 +5546,27 @@
       </c>
       <c r="B239">
         <f t="shared" si="11"/>
-        <v>861.02976000000012</v>
+        <v>2455.7787584000002</v>
       </c>
       <c r="C239">
         <f t="shared" si="7"/>
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D239">
         <f t="shared" si="5"/>
-        <v>701.02976000000012</v>
+        <v>2275.7787584000002</v>
       </c>
       <c r="E239">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.25509363714308358</v>
       </c>
       <c r="F239">
         <f t="shared" si="8"/>
-        <v>701.02976000000012</v>
+        <v>580.53668081322689</v>
       </c>
       <c r="G239">
         <f t="shared" si="10"/>
-        <v>14389.952640000001</v>
+        <v>9349.7594696858414</v>
       </c>
       <c r="I239" s="1"/>
       <c r="J239" s="1"/>
@@ -5611,7 +5579,7 @@
       </c>
       <c r="B240">
         <f t="shared" si="11"/>
-        <v>857.16863999999998</v>
+        <v>2444.7662976000001</v>
       </c>
       <c r="C240">
         <f t="shared" si="7"/>
@@ -5619,19 +5587,19 @@
       </c>
       <c r="D240">
         <f t="shared" si="5"/>
-        <v>757.16863999999998</v>
+        <v>2344.7662976000001</v>
       </c>
       <c r="E240">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.24294632108865097</v>
       </c>
       <c r="F240">
         <f t="shared" si="8"/>
-        <v>757.16863999999998</v>
+        <v>569.65234581457696</v>
       </c>
       <c r="G240">
         <f t="shared" si="10"/>
-        <v>15147.121280000001</v>
+        <v>9919.411815500418</v>
       </c>
       <c r="J240"/>
       <c r="M240"/>
@@ -5642,27 +5610,27 @@
       </c>
       <c r="B241">
         <f t="shared" si="11"/>
-        <v>853.30752000000007</v>
+        <v>2433.7538368000005</v>
       </c>
       <c r="C241">
         <f>$E$204+IF(ISEVEN(A241),$E$205,0)+E206</f>
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="D241">
         <f t="shared" si="5"/>
-        <v>493.30752000000007</v>
+        <v>2053.7538368000005</v>
       </c>
       <c r="E241">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.23137744865585813</v>
       </c>
       <c r="F241">
         <f t="shared" si="8"/>
-        <v>493.30752000000007</v>
+        <v>475.19232292596377</v>
       </c>
       <c r="G241">
         <f t="shared" si="10"/>
-        <v>15640.428800000002</v>
+        <v>10394.604138426383</v>
       </c>
       <c r="J241"/>
       <c r="M241"/>
@@ -5687,11 +5655,11 @@
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D244">
         <f>G211</f>
-        <v>-5000</v>
+        <v>-26209.259259259263</v>
       </c>
       <c r="J244" s="4"/>
     </row>
@@ -5701,7 +5669,7 @@
       </c>
       <c r="D245">
         <f>G212</f>
-        <v>-4126.32</v>
+        <v>-23677.515259259264</v>
       </c>
       <c r="J245" s="4"/>
     </row>
@@ -5711,7 +5679,7 @@
       </c>
       <c r="D246">
         <f t="shared" ref="D246:D273" si="12">G213</f>
-        <v>-3316.5347199999997</v>
+        <v>-21348.900406470148</v>
       </c>
       <c r="J246" s="4"/>
     </row>
@@ -5721,7 +5689,7 @@
       </c>
       <c r="D247">
         <f t="shared" si="12"/>
-        <v>-2650.6441599999994</v>
+        <v>-19244.363487865245</v>
       </c>
       <c r="J247" s="4"/>
     </row>
@@ -5731,7 +5699,7 @@
       </c>
       <c r="D248">
         <f t="shared" si="12"/>
-        <v>-1848.6483199999993</v>
+        <v>-17150.395459646548</v>
       </c>
       <c r="J248" s="4"/>
     </row>
@@ -5741,7 +5709,7 @@
       </c>
       <c r="D249">
         <f t="shared" si="12"/>
-        <v>-990.54719999999929</v>
+        <v>-15102.103000042833</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.2">
@@ -5750,7 +5718,7 @@
       </c>
       <c r="D250">
         <f t="shared" si="12"/>
-        <v>-396.34079999999926</v>
+        <v>-13368.52182451083</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.2">
@@ -5759,7 +5727,7 @@
       </c>
       <c r="D251">
         <f t="shared" si="12"/>
-        <v>453.97088000000076</v>
+        <v>-11526.342539036157</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.2">
@@ -5768,7 +5736,7 @@
       </c>
       <c r="D252">
         <f t="shared" si="12"/>
-        <v>1240.3878400000008</v>
+        <v>-9833.5010141603088</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.2">
@@ -5777,7 +5745,7 @@
       </c>
       <c r="D253">
         <f t="shared" si="12"/>
-        <v>1882.9100800000008</v>
+        <v>-8305.7362399567683</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.2">
@@ -5786,7 +5754,7 @@
       </c>
       <c r="D254">
         <f t="shared" si="12"/>
-        <v>2661.537600000001</v>
+        <v>-6783.8260831871776</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.2">
@@ -5795,7 +5763,7 @@
       </c>
       <c r="D255">
         <f t="shared" si="12"/>
-        <v>3496.2704000000012</v>
+        <v>-5294.0644520181195</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.2">
@@ -5804,7 +5772,7 @@
       </c>
       <c r="D256">
         <f t="shared" si="12"/>
-        <v>4067.1084800000012</v>
+        <v>-4037.3020960899935</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
@@ -5813,7 +5781,7 @@
       </c>
       <c r="D257">
         <f t="shared" si="12"/>
-        <v>4444.051840000001</v>
+        <v>-3219.2294576318704</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
@@ -5822,7 +5790,7 @@
       </c>
       <c r="D258">
         <f t="shared" si="12"/>
-        <v>5207.100480000001</v>
+        <v>-1989.4405203325098</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
@@ -5831,7 +5799,7 @@
       </c>
       <c r="D259">
         <f t="shared" si="12"/>
-        <v>5826.2544000000007</v>
+        <v>-881.24223064829289</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
@@ -5840,7 +5808,7 @@
       </c>
       <c r="D260">
         <f>G227</f>
-        <v>6581.5136000000011</v>
+        <v>224.1036013303185</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
@@ -5849,7 +5817,7 @@
       </c>
       <c r="D261">
         <f t="shared" si="12"/>
-        <v>7392.8780800000013</v>
+        <v>1306.9038494457182</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
@@ -5858,7 +5826,7 @@
       </c>
       <c r="D262">
         <f t="shared" si="12"/>
-        <v>7940.3478400000013</v>
+        <v>2217.2118232750372</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
@@ -5867,7 +5835,7 @@
       </c>
       <c r="D263">
         <f t="shared" si="12"/>
-        <v>8743.9228800000019</v>
+        <v>3190.6110450330871</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
@@ -5876,7 +5844,7 @@
       </c>
       <c r="D264">
         <f t="shared" si="12"/>
-        <v>9483.6032000000014</v>
+        <v>4083.348420189815</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
@@ -5885,7 +5853,7 @@
       </c>
       <c r="D265">
         <f t="shared" si="12"/>
-        <v>10071.660800000001</v>
+        <v>4884.818616413123</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
@@ -5894,7 +5862,7 @@
       </c>
       <c r="D266">
         <f t="shared" si="12"/>
-        <v>10795.857280000002</v>
+        <v>5685.3809414227944</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
@@ -5903,7 +5871,7 @@
       </c>
       <c r="D267">
         <f t="shared" si="12"/>
-        <v>11576.192640000001</v>
+        <v>6470.2816141768653</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
@@ -5912,7 +5880,7 @@
       </c>
       <c r="D268">
         <f t="shared" si="12"/>
-        <v>12092.666880000001</v>
+        <v>7127.5724388323706</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
@@ -5921,7 +5889,7 @@
       </c>
       <c r="D269">
         <f t="shared" si="12"/>
-        <v>12415.28</v>
+        <v>7542.6154074508295</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
@@ -5930,7 +5898,7 @@
       </c>
       <c r="D270">
         <f t="shared" si="12"/>
-        <v>13124.032000000001</v>
+        <v>8188.8514031854174</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
@@ -5939,7 +5907,7 @@
       </c>
       <c r="D271">
         <f t="shared" si="12"/>
-        <v>13688.922880000002</v>
+        <v>8769.2227888726138</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
@@ -5948,7 +5916,7 @@
       </c>
       <c r="D272">
         <f t="shared" si="12"/>
-        <v>14389.952640000001</v>
+        <v>9349.7594696858414</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
@@ -5957,7 +5925,7 @@
       </c>
       <c r="D273">
         <f t="shared" si="12"/>
-        <v>15147.121280000001</v>
+        <v>9919.411815500418</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
@@ -5966,7 +5934,7 @@
       </c>
       <c r="D274">
         <f>G241</f>
-        <v>15640.428800000002</v>
+        <v>10394.604138426383</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
@@ -5975,7 +5943,7 @@
       </c>
       <c r="D275">
         <f>ROUND(C211,2)</f>
-        <v>5000</v>
+        <v>26209.26</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
@@ -5984,7 +5952,7 @@
       </c>
       <c r="D276">
         <f>K238</f>
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -6001,10 +5969,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E504FB3-0E2B-2E44-8A34-6E570F9AA6DE}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6030,374 +5998,374 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
       </c>
       <c r="D2">
         <f>'calculation-sheet'!$D244</f>
-        <v>-5000</v>
+        <v>-26209.259259259263</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
       </c>
       <c r="D3">
         <f>'calculation-sheet'!G212</f>
-        <v>-4126.32</v>
+        <v>-23677.515259259264</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
       </c>
       <c r="D4">
         <f>'calculation-sheet'!D246</f>
-        <v>-3316.5347199999997</v>
+        <v>-21348.900406470148</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="D5">
         <f>'calculation-sheet'!D247</f>
-        <v>-2650.6441599999994</v>
+        <v>-19244.363487865245</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
       </c>
       <c r="D6">
         <f>'calculation-sheet'!D248</f>
-        <v>-1848.6483199999993</v>
+        <v>-17150.395459646548</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
       </c>
       <c r="D7">
         <f>'calculation-sheet'!D249</f>
-        <v>-990.54719999999929</v>
+        <v>-15102.103000042833</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
       </c>
       <c r="D8">
         <f>'calculation-sheet'!D250</f>
-        <v>-396.34079999999926</v>
+        <v>-13368.52182451083</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
       </c>
       <c r="D9">
         <f>'calculation-sheet'!D251</f>
-        <v>453.97088000000076</v>
+        <v>-11526.342539036157</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
       </c>
       <c r="D10">
         <f>'calculation-sheet'!D252</f>
-        <v>1240.3878400000008</v>
+        <v>-9833.5010141603088</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
       </c>
       <c r="D11">
         <f>'calculation-sheet'!D253</f>
-        <v>1882.9100800000008</v>
+        <v>-8305.7362399567683</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
       </c>
       <c r="D12">
         <f>'calculation-sheet'!D254</f>
-        <v>2661.537600000001</v>
+        <v>-6783.8260831871776</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
       </c>
       <c r="D13">
         <f>'calculation-sheet'!D255</f>
-        <v>3496.2704000000012</v>
+        <v>-5294.0644520181195</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
       </c>
       <c r="D14">
         <f>'calculation-sheet'!D256</f>
-        <v>4067.1084800000012</v>
+        <v>-4037.3020960899935</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
       </c>
       <c r="D15">
         <f>'calculation-sheet'!D257</f>
-        <v>4444.051840000001</v>
+        <v>-3219.2294576318704</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
       </c>
       <c r="D16">
         <f>'calculation-sheet'!D258</f>
-        <v>5207.100480000001</v>
+        <v>-1989.4405203325098</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
       </c>
       <c r="D17">
         <f>'calculation-sheet'!D259</f>
-        <v>5826.2544000000007</v>
+        <v>-881.24223064829289</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
       </c>
       <c r="D18">
         <f>'calculation-sheet'!D260</f>
-        <v>6581.5136000000011</v>
+        <v>224.1036013303185</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
       </c>
       <c r="D19">
         <f>'calculation-sheet'!D261</f>
-        <v>7392.8780800000013</v>
+        <v>1306.9038494457182</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
       </c>
       <c r="D20">
         <f>'calculation-sheet'!D262</f>
-        <v>7940.3478400000013</v>
+        <v>2217.2118232750372</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
       </c>
       <c r="D21">
         <f>'calculation-sheet'!D263</f>
-        <v>8743.9228800000019</v>
+        <v>3190.6110450330871</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
       </c>
       <c r="D22">
         <f>'calculation-sheet'!D264</f>
-        <v>9483.6032000000014</v>
+        <v>4083.348420189815</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B23" t="s">
         <v>30</v>
       </c>
       <c r="D23">
         <f>'calculation-sheet'!D265</f>
-        <v>10071.660800000001</v>
+        <v>4884.818616413123</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
       </c>
       <c r="D24">
         <f>'calculation-sheet'!D266</f>
-        <v>10795.857280000002</v>
+        <v>5685.3809414227944</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
       </c>
       <c r="D25">
         <f>'calculation-sheet'!D267</f>
-        <v>11576.192640000001</v>
+        <v>6470.2816141768653</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
       </c>
       <c r="D26">
         <f>'calculation-sheet'!D268</f>
-        <v>12092.666880000001</v>
+        <v>7127.5724388323706</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
       </c>
       <c r="D27">
         <f>'calculation-sheet'!D269</f>
-        <v>12415.28</v>
+        <v>7542.6154074508295</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
       <c r="D28">
         <f>'calculation-sheet'!D270</f>
-        <v>13124.032000000001</v>
+        <v>8188.8514031854174</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
       </c>
       <c r="D29">
         <f>'calculation-sheet'!D271</f>
-        <v>13688.922880000002</v>
+        <v>8769.2227888726138</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
       <c r="D30">
         <f>'calculation-sheet'!D272</f>
-        <v>14389.952640000001</v>
+        <v>9349.7594696858414</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
       </c>
       <c r="D31">
         <f>'calculation-sheet'!D273</f>
-        <v>15147.121280000001</v>
+        <v>9919.411815500418</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
       </c>
       <c r="D32">
         <f>'calculation-sheet'!D274</f>
-        <v>15640.428800000002</v>
+        <v>10394.604138426383</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -6409,7 +6377,7 @@
       </c>
       <c r="D33">
         <f>'calculation-sheet'!D275</f>
-        <v>5000</v>
+        <v>26209.26</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -6421,97 +6389,7 @@
       </c>
       <c r="D34">
         <f>'calculation-sheet'!K238</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>287</v>
-      </c>
-      <c r="D35">
-        <f>'calculation-sheet'!E176</f>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>288</v>
-      </c>
-      <c r="D36">
-        <f>'calculation-sheet'!E177</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>289</v>
-      </c>
-      <c r="D37">
-        <f>'calculation-sheet'!E187</f>
-        <v>7290</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>290</v>
-      </c>
-      <c r="D38">
-        <f>'calculation-sheet'!E193</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>291</v>
-      </c>
-      <c r="D39">
-        <f>'calculation-sheet'!E194</f>
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>292</v>
-      </c>
-      <c r="D40">
-        <f>'calculation-sheet'!E195</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>293</v>
-      </c>
-      <c r="D41">
-        <f>'calculation-sheet'!E200</f>
-        <v>344.4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>294</v>
-      </c>
-      <c r="D42">
-        <f>'calculation-sheet'!E201</f>
-        <v>336</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>295</v>
-      </c>
-      <c r="D43">
-        <f>'calculation-sheet'!E202</f>
-        <v>629.28000000000009</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>296</v>
-      </c>
-      <c r="D44">
-        <f>'calculation-sheet'!E203</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/break_even2.xlsx
+++ b/break_even2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nanebecher/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nanebecher/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF98C39C-59F0-834B-9E03-EBA4D519D335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876B043A-B985-9547-9F8F-4818C02D9E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{10AE25AE-CBB9-6C48-A0BD-F3B6274A0E75}"/>
+    <workbookView xWindow="25600" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{10AE25AE-CBB9-6C48-A0BD-F3B6274A0E75}"/>
   </bookViews>
   <sheets>
     <sheet name="viktor-input-sheet" sheetId="10" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="285">
   <si>
     <t>Nord</t>
   </si>
@@ -524,21 +524,6 @@
     <t xml:space="preserve">bestehende Förderungsmöglichkeiten </t>
   </si>
   <si>
-    <t>Ist eine im Haushalt lebende Person in Besitz eines Elektroautos?</t>
-  </si>
-  <si>
-    <t>Soll eine Ladesäule verbaut werden?</t>
-  </si>
-  <si>
-    <t>KfW Förderprogramm 442</t>
-  </si>
-  <si>
-    <t>Förderhöhe</t>
-  </si>
-  <si>
-    <t>Kosten für die Ladestation</t>
-  </si>
-  <si>
     <t>für Strom</t>
   </si>
   <si>
@@ -638,12 +623,6 @@
     <t>Stromspeicher</t>
   </si>
   <si>
-    <t>Elektroauto</t>
-  </si>
-  <si>
-    <t>Ladesäule</t>
-  </si>
-  <si>
     <t>m^2</t>
   </si>
   <si>
@@ -917,10 +896,25 @@
     <t>Erdgas</t>
   </si>
   <si>
-    <t>nein</t>
-  </si>
-  <si>
     <t>ja</t>
+  </si>
+  <si>
+    <t>JEB_Wärme</t>
+  </si>
+  <si>
+    <t>JEB_Strom</t>
+  </si>
+  <si>
+    <t>JEB_wämre</t>
+  </si>
+  <si>
+    <t>Sollarkollektoren</t>
+  </si>
+  <si>
+    <t>Heizungstausch</t>
+  </si>
+  <si>
+    <t>Planung</t>
   </si>
 </sst>
 </file>
@@ -1380,7 +1374,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1391,29 +1385,29 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1421,7 +1415,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -1432,7 +1426,7 @@
         <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D5">
         <v>400</v>
@@ -1440,18 +1434,18 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D6" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1459,7 +1453,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -1467,7 +1461,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -1475,10 +1469,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B10" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D10">
         <v>20</v>
@@ -1486,7 +1480,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -1494,7 +1488,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -1502,10 +1496,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B13" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D13">
         <v>20</v>
@@ -1513,7 +1507,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
@@ -1521,10 +1515,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B15" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1532,7 +1526,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D16" t="s">
         <v>0</v>
@@ -1540,34 +1534,40 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D17" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D18" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D19" t="s">
-        <v>285</v>
+        <v>279</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D20" t="s">
-        <v>285</v>
+        <v>280</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1582,8 +1582,8 @@
   </sheetPr>
   <dimension ref="A1:Q276"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="I218" sqref="I218"/>
+    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="C212" sqref="C212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1604,16 +1604,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1627,7 +1627,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D3">
         <f>'viktor-input-sheet'!D3</f>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D4">
         <f>'viktor-input-sheet'!D4</f>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D6" t="str">
         <f>'viktor-input-sheet'!D6</f>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D7">
         <f>'viktor-input-sheet'!D7</f>
@@ -1672,7 +1672,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D8" t="str">
         <f>'viktor-input-sheet'!D8</f>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D9" t="str">
         <f>'viktor-input-sheet'!D9</f>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D10">
         <f>'viktor-input-sheet'!D10</f>
@@ -1699,7 +1699,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D11" t="str">
         <f>'viktor-input-sheet'!D11</f>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D12" t="str">
         <f>'viktor-input-sheet'!D12</f>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D13">
         <f>'viktor-input-sheet'!D13</f>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D14" t="str">
         <f>'viktor-input-sheet'!D14</f>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D15">
         <f>'viktor-input-sheet'!D15</f>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D16" t="str">
         <f>'viktor-input-sheet'!D16</f>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D17" t="str">
         <f>'viktor-input-sheet'!D17</f>
@@ -1762,7 +1762,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D18" t="str">
         <f>'viktor-input-sheet'!D18</f>
@@ -1771,30 +1771,30 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D19" t="str">
+        <v>281</v>
+      </c>
+      <c r="D19">
         <f>'viktor-input-sheet'!D19</f>
-        <v>nein</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D20" t="str">
+        <v>280</v>
+      </c>
+      <c r="D20">
         <f>'viktor-input-sheet'!D20</f>
-        <v>nein</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B23">
         <v>0.34960000000000002</v>
@@ -1803,7 +1803,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B24">
         <v>9.3399999999999997E-2</v>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B25">
         <v>9.8330000000000001E-2</v>
@@ -1841,22 +1841,22 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C28" s="17" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="J28" s="4"/>
       <c r="N28" s="1" t="s">
@@ -2062,7 +2062,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B34">
         <v>0.08</v>
@@ -2083,7 +2083,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -2434,7 +2434,7 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>28</v>
@@ -2473,14 +2473,14 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D59" s="4">
         <f>D60+D69+D79+D88</f>
-        <v>21209.259259259263</v>
+        <v>20829.259259259263</v>
       </c>
       <c r="E59" t="s">
         <v>30</v>
@@ -2763,7 +2763,7 @@
         <v>41</v>
       </c>
       <c r="D68" s="4">
-        <f>-IF(G121="Bestand",0,160*G60)</f>
+        <f>-IF(G121="Bestand",0,171.33*G60)</f>
         <v>0</v>
       </c>
       <c r="E68" t="s">
@@ -2801,7 +2801,7 @@
       </c>
       <c r="D69" s="4">
         <f>IF(G69=0,0,D70+D75*G69+D76+D77+D78)</f>
-        <v>12225.925925925927</v>
+        <v>11999.325925925927</v>
       </c>
       <c r="E69" t="s">
         <v>30</v>
@@ -3064,8 +3064,8 @@
         <v>41</v>
       </c>
       <c r="D78" s="4">
-        <f>-IF(G121="Bestand",0,160*G69)</f>
-        <v>-3200</v>
+        <f>-IF(G121="Bestand",0,171.33*G69)</f>
+        <v>-3426.6000000000004</v>
       </c>
       <c r="E78" t="s">
         <v>30</v>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="D79" s="4">
         <f>IF(G79=0,0,D80+D84*G79+D85+D86+D87)</f>
-        <v>8983.3333333333339</v>
+        <v>8829.9333333333343</v>
       </c>
       <c r="E79" t="s">
         <v>30</v>
@@ -3265,8 +3265,8 @@
         <v>41</v>
       </c>
       <c r="D87" s="4">
-        <f>-IF(G121="Bestand",0,190*G79)</f>
-        <v>-3800</v>
+        <f>-IF(G121="Bestand",0,197.67*G79)</f>
+        <v>-3953.3999999999996</v>
       </c>
       <c r="E87" t="s">
         <v>30</v>
@@ -3434,7 +3434,7 @@
         <v>41</v>
       </c>
       <c r="D97" s="4">
-        <f>-IF(G121="Bestand",0,190*G88)</f>
+        <f>-IF(G121="Bestand",0,197.67*G88)</f>
         <v>0</v>
       </c>
       <c r="E97" t="s">
@@ -3454,7 +3454,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>43</v>
@@ -3465,7 +3465,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B101" t="s">
         <v>117</v>
@@ -3480,7 +3480,7 @@
     </row>
     <row r="102" spans="1:10" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B102" s="16" t="s">
         <v>45</v>
@@ -3499,7 +3499,7 @@
     </row>
     <row r="103" spans="1:10" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B103" s="16" t="s">
         <v>46</v>
@@ -3520,14 +3520,14 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B104" t="s">
         <v>47</v>
       </c>
       <c r="D104" s="4">
-        <f>D64</f>
-        <v>983.33333333333337</v>
+        <f>D64+2000</f>
+        <v>2983.3333333333335</v>
       </c>
       <c r="E104" t="s">
         <v>145</v>
@@ -3554,7 +3554,7 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>48</v>
@@ -3564,7 +3564,7 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>49</v>
@@ -3602,7 +3602,7 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>52</v>
@@ -3613,7 +3613,7 @@
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="7"/>
       <c r="B113" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D113" s="4"/>
       <c r="J113" s="4"/>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>118</v>
@@ -3673,10 +3673,10 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B119" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F119" t="s">
         <v>53</v>
@@ -3693,7 +3693,7 @@
         <v>96</v>
       </c>
       <c r="D120">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E120" t="s">
         <v>95</v>
@@ -3737,7 +3737,7 @@
       <c r="A122" s="6"/>
       <c r="D122">
         <f>IF(G121="Neubau",G122*D120,0)+IF(G121="Bestand",G122*D121,0)+IF(G121="Sanierung",G122*D120,0)</f>
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="E122" t="s">
         <v>56</v>
@@ -3760,7 +3760,7 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B124" t="s">
         <v>86</v>
@@ -3817,10 +3817,10 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B130" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D130">
         <f>IF(G119&gt;2,G119*C139,IF(G120=B132,C132,0)+IF(G120=B133,C133,0)+IF(G120=B134,C134,0)+IF(G120=B135,C135,0)+IF(G120=B136,C136,0)+IF(G120=B137,C137,0))</f>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B152" t="s">
         <v>119</v>
@@ -4135,47 +4135,56 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B160" t="s">
         <v>153</v>
       </c>
-      <c r="F160" t="s">
-        <v>154</v>
-      </c>
-      <c r="H160" t="str">
-        <f>D19</f>
-        <v>nein</v>
-      </c>
       <c r="J160" s="4"/>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
-        <v>156</v>
-      </c>
-      <c r="D161" t="str">
-        <f>IF(AND(H153="ja",H160="ja",H161="ja"),"erfüllt","keine Förderung")</f>
-        <v>keine Förderung</v>
-      </c>
-      <c r="F161" t="s">
-        <v>155</v>
-      </c>
-      <c r="H161" t="str">
-        <f>D20</f>
-        <v>nein</v>
+        <v>282</v>
+      </c>
+      <c r="D161">
+        <v>0.25</v>
+      </c>
+      <c r="E161">
+        <f>(IF(G69=0,0,(D71+D72+D75)*G69)+IF(G88=0,0,(D90+D91+D94)*G88))*D161</f>
+        <v>2725</v>
+      </c>
+      <c r="F161">
+        <v>60000</v>
       </c>
       <c r="J161" s="4"/>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B162" t="s">
+        <v>283</v>
+      </c>
+      <c r="D162">
+        <v>0.1</v>
+      </c>
+      <c r="E162">
+        <f>(IF(G69=0,0,D74+D76)+IF(G88=0,0,D93+D95))*D162</f>
+        <v>200</v>
+      </c>
       <c r="J162" s="4"/>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
-        <v>157</v>
+        <v>284</v>
       </c>
       <c r="D163" s="5">
-        <f>-(600+IF(D111&gt;10,6000,600*D111)+IF(D111&gt;15,3000,250*8))</f>
-        <v>-7400</v>
+        <v>0.5</v>
+      </c>
+      <c r="E163">
+        <f>(IF(G69=0,0,D77)+IF(G88=0,0,D96))*D163</f>
+        <v>771.2962962962963</v>
+      </c>
+      <c r="F163">
+        <f>IF(D3&lt;11,IF(D3&gt;2,2000*D3,5000),20000)</f>
+        <v>5000</v>
       </c>
       <c r="J163" s="4"/>
     </row>
@@ -4183,11 +4192,10 @@
       <c r="J164" s="4"/>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B165" t="s">
-        <v>158</v>
-      </c>
-      <c r="D165" s="5">
-        <v>2000</v>
+      <c r="D165" s="5"/>
+      <c r="E165">
+        <f>-IF(D2="Neubau",0,IF(E161&lt;F161,E161,F161)+E162+IF(E163&lt;F163,E163,F163))</f>
+        <v>0</v>
       </c>
       <c r="J165" s="4"/>
     </row>
@@ -4199,7 +4207,7 @@
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>73</v>
@@ -4216,7 +4224,7 @@
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>74</v>
@@ -4361,7 +4369,7 @@
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>79</v>
@@ -4383,7 +4391,7 @@
       </c>
       <c r="E187">
         <f>E188+E189</f>
-        <v>29100</v>
+        <v>33100</v>
       </c>
       <c r="F187" t="s">
         <v>76</v>
@@ -4395,7 +4403,7 @@
     <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" s="7"/>
       <c r="B188" s="12" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E188">
         <f>D130</f>
@@ -4411,11 +4419,11 @@
     <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" s="7"/>
       <c r="B189" s="12" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E189">
         <f>D124+D122</f>
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="F189" t="s">
         <v>76</v>
@@ -4488,7 +4496,7 @@
       </c>
       <c r="E195">
         <f>IF(E178&lt;E189*0.6,E178,E189*0.6)</f>
-        <v>12600</v>
+        <v>13475.800000000001</v>
       </c>
       <c r="F195" t="s">
         <v>76</v>
@@ -4511,7 +4519,7 @@
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" s="13" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>80</v>
@@ -4524,7 +4532,7 @@
       <c r="A199" s="7"/>
       <c r="G199"/>
       <c r="H199" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="J199"/>
       <c r="M199"/>
@@ -4539,7 +4547,7 @@
       </c>
       <c r="G200"/>
       <c r="H200" s="6" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="I200" t="s">
         <v>134</v>
@@ -4577,7 +4585,7 @@
       </c>
       <c r="E203">
         <f>IF(D6="Heizöl",E195*B25,E195*B24)</f>
-        <v>1176.8399999999999</v>
+        <v>1258.6397200000001</v>
       </c>
       <c r="G203"/>
       <c r="J203"/>
@@ -4625,7 +4633,7 @@
       </c>
       <c r="E207" s="5">
         <f>D104</f>
-        <v>983.33333333333337</v>
+        <v>2983.3333333333335</v>
       </c>
       <c r="G207"/>
       <c r="J207"/>
@@ -4674,12 +4682,12 @@
         <v>0</v>
       </c>
       <c r="C211">
-        <f>D59+IF(H153="ja",D157,0)+IF(D161="ja",D163+D165,0)</f>
-        <v>26209.259259259263</v>
+        <f>D59+IF(H153="ja",D157,0)+E165</f>
+        <v>25829.259259259263</v>
       </c>
       <c r="D211">
         <f t="shared" ref="D211:D241" si="5">B211-C211</f>
-        <v>-26209.259259259263</v>
+        <v>-25829.259259259263</v>
       </c>
       <c r="E211">
         <f>1/((1+0.05)^A211)</f>
@@ -4687,11 +4695,11 @@
       </c>
       <c r="F211">
         <f>D211*E211</f>
-        <v>-26209.259259259263</v>
+        <v>-25829.259259259263</v>
       </c>
       <c r="G211">
         <f>F211</f>
-        <v>-26209.259259259263</v>
+        <v>-25829.259259259263</v>
       </c>
       <c r="J211"/>
       <c r="M211"/>
@@ -4702,7 +4710,7 @@
       </c>
       <c r="B212">
         <f>$E$200+$E$202+$E$203</f>
-        <v>2758.3312000000001</v>
+        <v>2840.1309200000005</v>
       </c>
       <c r="C212">
         <f>$E$204+IF(ISEVEN(A212),$E$205,0)</f>
@@ -4710,7 +4718,7 @@
       </c>
       <c r="D212">
         <f t="shared" si="5"/>
-        <v>2658.3312000000001</v>
+        <v>2740.1309200000005</v>
       </c>
       <c r="E212">
         <f t="shared" ref="E212:E241" si="6">1/((1+0.05)^A212)</f>
@@ -4718,11 +4726,11 @@
       </c>
       <c r="F212">
         <f>D212*E212</f>
-        <v>2531.7440000000001</v>
+        <v>2609.6484952380956</v>
       </c>
       <c r="G212">
         <f>G211+F212</f>
-        <v>-23677.515259259264</v>
+        <v>-23219.610764021167</v>
       </c>
       <c r="J212"/>
       <c r="M212"/>
@@ -4733,7 +4741,7 @@
       </c>
       <c r="B213">
         <f>($E$200+$E$202+$E$203)*(100-0.4*(A213-1))/100</f>
-        <v>2747.2978751999999</v>
+        <v>2828.7703963200001</v>
       </c>
       <c r="C213">
         <f t="shared" ref="C213:C240" si="7">$E$204+IF(ISEVEN(A213),$E$205,0)</f>
@@ -4741,7 +4749,7 @@
       </c>
       <c r="D213">
         <f t="shared" si="5"/>
-        <v>2567.2978751999999</v>
+        <v>2648.7703963200001</v>
       </c>
       <c r="E213">
         <f t="shared" si="6"/>
@@ -4749,11 +4757,11 @@
       </c>
       <c r="F213">
         <f t="shared" ref="F213:F241" si="8">D213*E213</f>
-        <v>2328.6148527891155</v>
+        <v>2402.5128311292515</v>
       </c>
       <c r="G213">
         <f>G212+F213</f>
-        <v>-21348.900406470148</v>
+        <v>-20817.097932891917</v>
       </c>
       <c r="J213"/>
       <c r="M213"/>
@@ -4764,7 +4772,7 @@
       </c>
       <c r="B214">
         <f t="shared" ref="B214:B229" si="9">($E$200+$E$202+$E$203)*(100-0.4*(A214-1))/100</f>
-        <v>2736.2645504000002</v>
+        <v>2817.4098726400007</v>
       </c>
       <c r="C214">
         <f>$E$204+IF(ISEVEN(A214),$E$205,0)+E206</f>
@@ -4772,7 +4780,7 @@
       </c>
       <c r="D214">
         <f t="shared" si="5"/>
-        <v>2436.2645504000002</v>
+        <v>2517.4098726400007</v>
       </c>
       <c r="E214">
         <f t="shared" si="6"/>
@@ -4780,11 +4788,11 @@
       </c>
       <c r="F214">
         <f t="shared" si="8"/>
-        <v>2104.5369186049024</v>
+        <v>2174.6332989007669</v>
       </c>
       <c r="G214">
         <f>G213+F214</f>
-        <v>-19244.363487865245</v>
+        <v>-18642.464633991149</v>
       </c>
       <c r="J214"/>
       <c r="M214"/>
@@ -4795,7 +4803,7 @@
       </c>
       <c r="B215">
         <f t="shared" si="9"/>
-        <v>2725.2312256</v>
+        <v>2806.0493489600003</v>
       </c>
       <c r="C215">
         <f t="shared" si="7"/>
@@ -4803,7 +4811,7 @@
       </c>
       <c r="D215">
         <f t="shared" si="5"/>
-        <v>2545.2312256</v>
+        <v>2626.0493489600003</v>
       </c>
       <c r="E215">
         <f t="shared" si="6"/>
@@ -4811,11 +4819,11 @@
       </c>
       <c r="F215">
         <f t="shared" si="8"/>
-        <v>2093.9680282186951</v>
+        <v>2160.4572983150028</v>
       </c>
       <c r="G215">
         <f t="shared" ref="G215:G241" si="10">G214+F215</f>
-        <v>-17150.395459646548</v>
+        <v>-16482.007335676146</v>
       </c>
       <c r="J215"/>
       <c r="M215"/>
@@ -4826,7 +4834,7 @@
       </c>
       <c r="B216">
         <f t="shared" si="9"/>
-        <v>2714.1979007999998</v>
+        <v>2794.6888252800004</v>
       </c>
       <c r="C216">
         <f t="shared" si="7"/>
@@ -4834,7 +4842,7 @@
       </c>
       <c r="D216">
         <f t="shared" si="5"/>
-        <v>2614.1979007999998</v>
+        <v>2694.6888252800004</v>
       </c>
       <c r="E216">
         <f t="shared" si="6"/>
@@ -4842,11 +4850,11 @@
       </c>
       <c r="F216">
         <f t="shared" si="8"/>
-        <v>2048.2924596037165</v>
+        <v>2111.3592050970337</v>
       </c>
       <c r="G216">
         <f t="shared" si="10"/>
-        <v>-15102.103000042833</v>
+        <v>-14370.648130579113</v>
       </c>
       <c r="J216"/>
       <c r="M216"/>
@@ -4857,7 +4865,7 @@
       </c>
       <c r="B217">
         <f t="shared" si="9"/>
-        <v>2703.1645760000001</v>
+        <v>2783.3283016000005</v>
       </c>
       <c r="C217">
         <f>$E$204+IF(ISEVEN(A217),$E$205,0)+E206</f>
@@ -4865,7 +4873,7 @@
       </c>
       <c r="D217">
         <f t="shared" si="5"/>
-        <v>2323.1645760000001</v>
+        <v>2403.3283016000005</v>
       </c>
       <c r="E217">
         <f t="shared" si="6"/>
@@ -4873,11 +4881,11 @@
       </c>
       <c r="F217">
         <f t="shared" si="8"/>
-        <v>1733.5811755320028</v>
+        <v>1793.400581826477</v>
       </c>
       <c r="G217">
         <f t="shared" si="10"/>
-        <v>-13368.52182451083</v>
+        <v>-12577.247548752635</v>
       </c>
       <c r="J217"/>
       <c r="M217"/>
@@ -4888,7 +4896,7 @@
       </c>
       <c r="B218">
         <f t="shared" si="9"/>
-        <v>2692.1312512</v>
+        <v>2771.9677779200006</v>
       </c>
       <c r="C218">
         <f t="shared" si="7"/>
@@ -4896,7 +4904,7 @@
       </c>
       <c r="D218">
         <f t="shared" si="5"/>
-        <v>2592.1312512</v>
+        <v>2671.9677779200006</v>
       </c>
       <c r="E218">
         <f t="shared" si="6"/>
@@ -4904,11 +4912,11 @@
       </c>
       <c r="F218">
         <f t="shared" si="8"/>
-        <v>1842.179285474672</v>
+        <v>1898.9176144770111</v>
       </c>
       <c r="G218">
         <f t="shared" si="10"/>
-        <v>-11526.342539036157</v>
+        <v>-10678.329934275624</v>
       </c>
       <c r="J218"/>
       <c r="M218"/>
@@ -4919,7 +4927,7 @@
       </c>
       <c r="B219">
         <f t="shared" si="9"/>
-        <v>2681.0979263999998</v>
+        <v>2760.6072542400007</v>
       </c>
       <c r="C219">
         <f t="shared" si="7"/>
@@ -4927,7 +4935,7 @@
       </c>
       <c r="D219">
         <f t="shared" si="5"/>
-        <v>2501.0979263999998</v>
+        <v>2580.6072542400007</v>
       </c>
       <c r="E219">
         <f t="shared" si="6"/>
@@ -4935,11 +4943,11 @@
       </c>
       <c r="F219">
         <f t="shared" si="8"/>
-        <v>1692.8415248758483</v>
+        <v>1746.6565676064042</v>
       </c>
       <c r="G219">
         <f t="shared" si="10"/>
-        <v>-9833.5010141603088</v>
+        <v>-8931.6733666692198</v>
       </c>
       <c r="J219"/>
       <c r="M219"/>
@@ -4950,7 +4958,7 @@
       </c>
       <c r="B220">
         <f t="shared" si="9"/>
-        <v>2670.0646016000001</v>
+        <v>2749.2467305600003</v>
       </c>
       <c r="C220">
         <f>$E$204+IF(ISEVEN(A220),$E$205,0)+E206</f>
@@ -4958,7 +4966,7 @@
       </c>
       <c r="D220">
         <f t="shared" si="5"/>
-        <v>2370.0646016000001</v>
+        <v>2449.2467305600003</v>
       </c>
       <c r="E220">
         <f t="shared" si="6"/>
@@ -4966,11 +4974,11 @@
       </c>
       <c r="F220">
         <f t="shared" si="8"/>
-        <v>1527.7647742035415</v>
+        <v>1578.8062805362651</v>
       </c>
       <c r="G220">
         <f t="shared" si="10"/>
-        <v>-8305.7362399567683</v>
+        <v>-7352.8670861329547</v>
       </c>
       <c r="J220"/>
       <c r="M220"/>
@@ -4981,7 +4989,7 @@
       </c>
       <c r="B221">
         <f t="shared" si="9"/>
-        <v>2659.0312768000003</v>
+        <v>2737.8862068800004</v>
       </c>
       <c r="C221">
         <f t="shared" si="7"/>
@@ -4989,7 +4997,7 @@
       </c>
       <c r="D221">
         <f t="shared" si="5"/>
-        <v>2479.0312768000003</v>
+        <v>2557.8862068800004</v>
       </c>
       <c r="E221">
         <f t="shared" si="6"/>
@@ -4997,11 +5005,11 @@
       </c>
       <c r="F221">
         <f t="shared" si="8"/>
-        <v>1521.9101567695909</v>
+        <v>1570.3202434527327</v>
       </c>
       <c r="G221">
         <f t="shared" si="10"/>
-        <v>-6783.8260831871776</v>
+        <v>-5782.5468426802217</v>
       </c>
       <c r="J221"/>
       <c r="M221"/>
@@ -5012,7 +5020,7 @@
       </c>
       <c r="B222">
         <f t="shared" si="9"/>
-        <v>2647.9979519999997</v>
+        <v>2726.5256832000009</v>
       </c>
       <c r="C222">
         <f t="shared" si="7"/>
@@ -5020,7 +5028,7 @@
       </c>
       <c r="D222">
         <f t="shared" si="5"/>
-        <v>2547.9979519999997</v>
+        <v>2626.5256832000009</v>
       </c>
       <c r="E222">
         <f t="shared" si="6"/>
@@ -5028,11 +5036,11 @@
       </c>
       <c r="F222">
         <f t="shared" si="8"/>
-        <v>1489.7616311690583</v>
+        <v>1535.6751692206458</v>
       </c>
       <c r="G222">
         <f t="shared" si="10"/>
-        <v>-5294.0644520181195</v>
+        <v>-4246.8716734595764</v>
       </c>
       <c r="J222"/>
       <c r="M222"/>
@@ -5043,7 +5051,7 @@
       </c>
       <c r="B223">
         <f t="shared" si="9"/>
-        <v>2636.9646272</v>
+        <v>2715.1651595200005</v>
       </c>
       <c r="C223">
         <f>$E$204+IF(ISEVEN(A223),$E$205,0)+E206</f>
@@ -5051,7 +5059,7 @@
       </c>
       <c r="D223">
         <f t="shared" si="5"/>
-        <v>2256.9646272</v>
+        <v>2335.1651595200005</v>
       </c>
       <c r="E223">
         <f t="shared" si="6"/>
@@ -5059,11 +5067,11 @@
       </c>
       <c r="F223">
         <f t="shared" si="8"/>
-        <v>1256.762355928126</v>
+        <v>1300.307338445306</v>
       </c>
       <c r="G223">
         <f t="shared" si="10"/>
-        <v>-4037.3020960899935</v>
+        <v>-2946.5643350142705</v>
       </c>
       <c r="J223"/>
       <c r="M223"/>
@@ -5074,15 +5082,15 @@
       </c>
       <c r="B224">
         <f t="shared" si="9"/>
-        <v>2625.9313024000003</v>
+        <v>2703.8046358400006</v>
       </c>
       <c r="C224">
         <f>$E$204+IF(ISEVEN(A224),$E$205,0)+E207</f>
-        <v>1083.3333333333335</v>
+        <v>3083.3333333333335</v>
       </c>
       <c r="D224">
         <f t="shared" si="5"/>
-        <v>1542.5979690666668</v>
+        <v>-379.52869749333286</v>
       </c>
       <c r="E224">
         <f t="shared" si="6"/>
@@ -5090,11 +5098,11 @@
       </c>
       <c r="F224">
         <f t="shared" si="8"/>
-        <v>818.07263845812315</v>
+        <v>-201.27217146331373</v>
       </c>
       <c r="G224">
         <f t="shared" si="10"/>
-        <v>-3219.2294576318704</v>
+        <v>-3147.8365064775844</v>
       </c>
       <c r="J224"/>
       <c r="M224"/>
@@ -5105,7 +5113,7 @@
       </c>
       <c r="B225">
         <f t="shared" si="9"/>
-        <v>2614.8979775999996</v>
+        <v>2692.4441121600003</v>
       </c>
       <c r="C225">
         <f t="shared" si="7"/>
@@ -5113,7 +5121,7 @@
       </c>
       <c r="D225">
         <f t="shared" si="5"/>
-        <v>2434.8979775999996</v>
+        <v>2512.4441121600003</v>
       </c>
       <c r="E225">
         <f t="shared" si="6"/>
@@ -5121,11 +5129,11 @@
       </c>
       <c r="F225">
         <f t="shared" si="8"/>
-        <v>1229.7889372993607</v>
+        <v>1268.9550047442951</v>
       </c>
       <c r="G225">
         <f t="shared" si="10"/>
-        <v>-1989.4405203325098</v>
+        <v>-1878.8815017332893</v>
       </c>
       <c r="J225"/>
       <c r="M225"/>
@@ -5136,7 +5144,7 @@
       </c>
       <c r="B226">
         <f t="shared" si="9"/>
-        <v>2603.8646528000004</v>
+        <v>2681.0835884800008</v>
       </c>
       <c r="C226">
         <f>$E$204+IF(ISEVEN(A226),$E$205,0)+E206</f>
@@ -5144,7 +5152,7 @@
       </c>
       <c r="D226">
         <f t="shared" si="5"/>
-        <v>2303.8646528000004</v>
+        <v>2381.0835884800008</v>
       </c>
       <c r="E226">
         <f t="shared" si="6"/>
@@ -5152,11 +5160,11 @@
       </c>
       <c r="F226">
         <f t="shared" si="8"/>
-        <v>1108.1982896842169</v>
+        <v>1145.3419180426838</v>
       </c>
       <c r="G226">
         <f t="shared" si="10"/>
-        <v>-881.24223064829289</v>
+        <v>-733.53958369060547</v>
       </c>
       <c r="J226"/>
       <c r="M226"/>
@@ -5167,7 +5175,7 @@
       </c>
       <c r="B227">
         <f t="shared" si="9"/>
-        <v>2592.8313280000002</v>
+        <v>2669.7230648000004</v>
       </c>
       <c r="C227">
         <f t="shared" si="7"/>
@@ -5175,7 +5183,7 @@
       </c>
       <c r="D227">
         <f t="shared" si="5"/>
-        <v>2412.8313280000002</v>
+        <v>2489.7230648000004</v>
       </c>
       <c r="E227">
         <f t="shared" si="6"/>
@@ -5183,11 +5191,11 @@
       </c>
       <c r="F227">
         <f t="shared" si="8"/>
-        <v>1105.3458319786114</v>
+        <v>1140.5708225526216</v>
       </c>
       <c r="G227">
         <f t="shared" si="10"/>
-        <v>224.1036013303185</v>
+        <v>407.03123886201615</v>
       </c>
       <c r="J227"/>
       <c r="M227"/>
@@ -5198,7 +5206,7 @@
       </c>
       <c r="B228">
         <f t="shared" si="9"/>
-        <v>2581.7980031999996</v>
+        <v>2658.3625411200005</v>
       </c>
       <c r="C228">
         <f t="shared" si="7"/>
@@ -5206,7 +5214,7 @@
       </c>
       <c r="D228">
         <f t="shared" si="5"/>
-        <v>2481.7980031999996</v>
+        <v>2558.3625411200005</v>
       </c>
       <c r="E228">
         <f t="shared" si="6"/>
@@ -5214,11 +5222,11 @@
       </c>
       <c r="F228">
         <f t="shared" si="8"/>
-        <v>1082.8002481153997</v>
+        <v>1116.2051023983518</v>
       </c>
       <c r="G228">
         <f t="shared" si="10"/>
-        <v>1306.9038494457182</v>
+        <v>1523.2363412603679</v>
       </c>
       <c r="J228"/>
       <c r="M228"/>
@@ -5229,7 +5237,7 @@
       </c>
       <c r="B229">
         <f t="shared" si="9"/>
-        <v>2570.7646784000003</v>
+        <v>2647.0020174400006</v>
       </c>
       <c r="C229">
         <f>$E$204+IF(ISEVEN(A229),$E$205,0)+E206</f>
@@ -5237,7 +5245,7 @@
       </c>
       <c r="D229">
         <f t="shared" si="5"/>
-        <v>2190.7646784000003</v>
+        <v>2267.0020174400006</v>
       </c>
       <c r="E229">
         <f t="shared" si="6"/>
@@ -5245,11 +5253,11 @@
       </c>
       <c r="F229">
         <f t="shared" si="8"/>
-        <v>910.30797382931917</v>
+        <v>941.98616287257448</v>
       </c>
       <c r="G229">
         <f t="shared" si="10"/>
-        <v>2217.2118232750372</v>
+        <v>2465.2225041329425</v>
       </c>
       <c r="J229"/>
       <c r="M229"/>
@@ -5260,7 +5268,7 @@
       </c>
       <c r="B230">
         <f>($E$200+$E$202+$E$203)*(100-0.4*(A230-1))/100</f>
-        <v>2559.7313535999997</v>
+        <v>2635.6414937600002</v>
       </c>
       <c r="C230">
         <f t="shared" si="7"/>
@@ -5268,7 +5276,7 @@
       </c>
       <c r="D230">
         <f t="shared" si="5"/>
-        <v>2459.7313535999997</v>
+        <v>2535.6414937600002</v>
       </c>
       <c r="E230">
         <f t="shared" si="6"/>
@@ -5276,11 +5284,11 @@
       </c>
       <c r="F230">
         <f t="shared" si="8"/>
-        <v>973.39922175805009</v>
+        <v>1003.4394419012557</v>
       </c>
       <c r="G230">
         <f>G229+F230</f>
-        <v>3190.6110450330871</v>
+        <v>3468.6619460341981</v>
       </c>
       <c r="J230"/>
       <c r="M230"/>
@@ -5291,7 +5299,7 @@
       </c>
       <c r="B231">
         <f>($E$200+$E$202+$E$203)*(100-0.4*(A231-1))/100</f>
-        <v>2548.6980288000004</v>
+        <v>2624.2809700800008</v>
       </c>
       <c r="C231">
         <f t="shared" si="7"/>
@@ -5299,7 +5307,7 @@
       </c>
       <c r="D231">
         <f t="shared" si="5"/>
-        <v>2368.6980288000004</v>
+        <v>2444.2809700800008</v>
       </c>
       <c r="E231">
         <f t="shared" si="6"/>
@@ -5307,11 +5315,11 @@
       </c>
       <c r="F231">
         <f>D231*E231</f>
-        <v>892.73737515672804</v>
+        <v>921.22379080976782</v>
       </c>
       <c r="G231">
         <f t="shared" si="10"/>
-        <v>4083.348420189815</v>
+        <v>4389.8857368439658</v>
       </c>
       <c r="J231"/>
       <c r="M231"/>
@@ -5322,7 +5330,7 @@
       </c>
       <c r="B232">
         <f>($E$201+$E$202+$E$203)*(100-0.4*(A232-1))/100</f>
-        <v>2532.865984</v>
+        <v>2608.1217264000002</v>
       </c>
       <c r="C232">
         <f>$E$204+IF(ISEVEN(A232),$E$205,0)+E206</f>
@@ -5330,7 +5338,7 @@
       </c>
       <c r="D232">
         <f t="shared" si="5"/>
-        <v>2232.865984</v>
+        <v>2308.1217264000002</v>
       </c>
       <c r="E232">
         <f t="shared" si="6"/>
@@ -5338,11 +5346,11 @@
       </c>
       <c r="F232">
         <f t="shared" si="8"/>
-        <v>801.47019622330822</v>
+        <v>828.48267035317474</v>
       </c>
       <c r="G232">
         <f t="shared" si="10"/>
-        <v>4884.818616413123</v>
+        <v>5218.3684071971402</v>
       </c>
       <c r="J232"/>
       <c r="M232"/>
@@ -5353,7 +5361,7 @@
       </c>
       <c r="B233">
         <f t="shared" ref="B233:B241" si="11">($E$201+$E$202+$E$203)*(100-0.4*(A233-1))/100</f>
-        <v>2521.8535231999999</v>
+        <v>2596.7820667199999</v>
       </c>
       <c r="C233">
         <f t="shared" si="7"/>
@@ -5361,7 +5369,7 @@
       </c>
       <c r="D233">
         <f t="shared" si="5"/>
-        <v>2341.8535231999999</v>
+        <v>2416.7820667199999</v>
       </c>
       <c r="E233">
         <f t="shared" si="6"/>
@@ -5369,11 +5377,11 @@
       </c>
       <c r="F233">
         <f t="shared" si="8"/>
-        <v>800.56232500967133</v>
+        <v>826.17663795269164</v>
       </c>
       <c r="G233">
         <f t="shared" si="10"/>
-        <v>5685.3809414227944</v>
+        <v>6044.5450451498318</v>
       </c>
       <c r="J233"/>
       <c r="M233"/>
@@ -5384,7 +5392,7 @@
       </c>
       <c r="B234">
         <f t="shared" si="11"/>
-        <v>2510.8410624000003</v>
+        <v>2585.44240704</v>
       </c>
       <c r="C234">
         <f t="shared" si="7"/>
@@ -5392,7 +5400,7 @@
       </c>
       <c r="D234">
         <f t="shared" si="5"/>
-        <v>2410.8410624000003</v>
+        <v>2485.44240704</v>
       </c>
       <c r="E234">
         <f t="shared" si="6"/>
@@ -5400,11 +5408,11 @@
       </c>
       <c r="F234">
         <f t="shared" si="8"/>
-        <v>784.90067275407091</v>
+        <v>809.18872994271146</v>
       </c>
       <c r="G234">
         <f t="shared" si="10"/>
-        <v>6470.2816141768653</v>
+        <v>6853.7337750925435</v>
       </c>
       <c r="J234"/>
       <c r="M234"/>
@@ -5415,7 +5423,7 @@
       </c>
       <c r="B235">
         <f t="shared" si="11"/>
-        <v>2499.8286016000002</v>
+        <v>2574.1027473600002</v>
       </c>
       <c r="C235">
         <f>$E$204+IF(ISEVEN(A235),$E$205,0)+E206</f>
@@ -5423,7 +5431,7 @@
       </c>
       <c r="D235">
         <f t="shared" si="5"/>
-        <v>2119.8286016000002</v>
+        <v>2194.1027473600002</v>
       </c>
       <c r="E235">
         <f t="shared" si="6"/>
@@ -5431,11 +5439,11 @@
       </c>
       <c r="F235">
         <f t="shared" si="8"/>
-        <v>657.29082465550482</v>
+        <v>680.32085381933689</v>
       </c>
       <c r="G235">
         <f t="shared" si="10"/>
-        <v>7127.5724388323706</v>
+        <v>7534.0546289118802</v>
       </c>
       <c r="J235"/>
       <c r="M235"/>
@@ -5446,15 +5454,15 @@
       </c>
       <c r="B236">
         <f t="shared" si="11"/>
-        <v>2488.8161408000001</v>
+        <v>2562.7630876800004</v>
       </c>
       <c r="C236">
         <f>$E$204+IF(ISEVEN(A236),$E$205,0)+E207</f>
-        <v>1083.3333333333335</v>
+        <v>3083.3333333333335</v>
       </c>
       <c r="D236">
         <f t="shared" si="5"/>
-        <v>1405.4828074666666</v>
+        <v>-520.57024565333313</v>
       </c>
       <c r="E236">
         <f t="shared" si="6"/>
@@ -5462,11 +5470,11 @@
       </c>
       <c r="F236">
         <f t="shared" si="8"/>
-        <v>415.04296861845876</v>
+        <v>-153.72583640481417</v>
       </c>
       <c r="G236">
         <f t="shared" si="10"/>
-        <v>7542.6154074508295</v>
+        <v>7380.3287925070663</v>
       </c>
       <c r="J236"/>
       <c r="M236"/>
@@ -5477,7 +5485,7 @@
       </c>
       <c r="B237">
         <f t="shared" si="11"/>
-        <v>2477.80368</v>
+        <v>2551.4234280000001</v>
       </c>
       <c r="C237">
         <f t="shared" si="7"/>
@@ -5485,7 +5493,7 @@
       </c>
       <c r="D237">
         <f t="shared" si="5"/>
-        <v>2297.80368</v>
+        <v>2371.4234280000001</v>
       </c>
       <c r="E237">
         <f t="shared" si="6"/>
@@ -5493,11 +5501,11 @@
       </c>
       <c r="F237">
         <f t="shared" si="8"/>
-        <v>646.23599573458807</v>
+        <v>666.94086776896029</v>
       </c>
       <c r="G237">
         <f t="shared" si="10"/>
-        <v>8188.8514031854174</v>
+        <v>8047.2696602760261</v>
       </c>
       <c r="J237"/>
       <c r="M237"/>
@@ -5508,7 +5516,7 @@
       </c>
       <c r="B238">
         <f t="shared" si="11"/>
-        <v>2466.7912191999999</v>
+        <v>2540.0837683200002</v>
       </c>
       <c r="C238">
         <f>$E$204+IF(ISEVEN(A238),$E$205,0)+E206</f>
@@ -5516,7 +5524,7 @@
       </c>
       <c r="D238">
         <f t="shared" si="5"/>
-        <v>2166.7912191999999</v>
+        <v>2240.0837683200002</v>
       </c>
       <c r="E238">
         <f t="shared" si="6"/>
@@ -5524,14 +5532,14 @@
       </c>
       <c r="F238">
         <f t="shared" si="8"/>
-        <v>580.37138568719558</v>
+        <v>600.00267176422994</v>
       </c>
       <c r="G238">
         <f t="shared" si="10"/>
-        <v>8769.2227888726138</v>
+        <v>8647.2723320402565</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="J238" s="1"/>
       <c r="K238" s="1">
@@ -5546,7 +5554,7 @@
       </c>
       <c r="B239">
         <f t="shared" si="11"/>
-        <v>2455.7787584000002</v>
+        <v>2528.7441086400004</v>
       </c>
       <c r="C239">
         <f t="shared" si="7"/>
@@ -5554,7 +5562,7 @@
       </c>
       <c r="D239">
         <f t="shared" si="5"/>
-        <v>2275.7787584000002</v>
+        <v>2348.7441086400004</v>
       </c>
       <c r="E239">
         <f t="shared" si="6"/>
@@ -5562,11 +5570,11 @@
       </c>
       <c r="F239">
         <f t="shared" si="8"/>
-        <v>580.53668081322689</v>
+        <v>599.1496773913675</v>
       </c>
       <c r="G239">
         <f t="shared" si="10"/>
-        <v>9349.7594696858414</v>
+        <v>9246.4220094316242</v>
       </c>
       <c r="I239" s="1"/>
       <c r="J239" s="1"/>
@@ -5579,7 +5587,7 @@
       </c>
       <c r="B240">
         <f t="shared" si="11"/>
-        <v>2444.7662976000001</v>
+        <v>2517.4044489600001</v>
       </c>
       <c r="C240">
         <f t="shared" si="7"/>
@@ -5587,7 +5595,7 @@
       </c>
       <c r="D240">
         <f t="shared" si="5"/>
-        <v>2344.7662976000001</v>
+        <v>2417.4044489600001</v>
       </c>
       <c r="E240">
         <f t="shared" si="6"/>
@@ -5595,11 +5603,11 @@
       </c>
       <c r="F240">
         <f t="shared" si="8"/>
-        <v>569.65234581457696</v>
+        <v>587.29951745816959</v>
       </c>
       <c r="G240">
         <f t="shared" si="10"/>
-        <v>9919.411815500418</v>
+        <v>9833.7215268897944</v>
       </c>
       <c r="J240"/>
       <c r="M240"/>
@@ -5610,7 +5618,7 @@
       </c>
       <c r="B241">
         <f t="shared" si="11"/>
-        <v>2433.7538368000005</v>
+        <v>2506.0647892800002</v>
       </c>
       <c r="C241">
         <f>$E$204+IF(ISEVEN(A241),$E$205,0)+E206</f>
@@ -5618,7 +5626,7 @@
       </c>
       <c r="D241">
         <f t="shared" si="5"/>
-        <v>2053.7538368000005</v>
+        <v>2126.0647892800002</v>
       </c>
       <c r="E241">
         <f t="shared" si="6"/>
@@ -5626,11 +5634,11 @@
       </c>
       <c r="F241">
         <f t="shared" si="8"/>
-        <v>475.19232292596377</v>
+        <v>491.92344662066108</v>
       </c>
       <c r="G241">
         <f t="shared" si="10"/>
-        <v>10394.604138426383</v>
+        <v>10325.644973510456</v>
       </c>
       <c r="J241"/>
       <c r="M241"/>
@@ -5642,299 +5650,299 @@
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B243" s="1"/>
       <c r="C243" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="J243" s="4"/>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D244">
         <f>G211</f>
-        <v>-26209.259259259263</v>
+        <v>-25829.259259259263</v>
       </c>
       <c r="J244" s="4"/>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D245">
         <f>G212</f>
-        <v>-23677.515259259264</v>
+        <v>-23219.610764021167</v>
       </c>
       <c r="J245" s="4"/>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D246">
         <f t="shared" ref="D246:D273" si="12">G213</f>
-        <v>-21348.900406470148</v>
+        <v>-20817.097932891917</v>
       </c>
       <c r="J246" s="4"/>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D247">
         <f t="shared" si="12"/>
-        <v>-19244.363487865245</v>
+        <v>-18642.464633991149</v>
       </c>
       <c r="J247" s="4"/>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D248">
         <f t="shared" si="12"/>
-        <v>-17150.395459646548</v>
+        <v>-16482.007335676146</v>
       </c>
       <c r="J248" s="4"/>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D249">
         <f t="shared" si="12"/>
-        <v>-15102.103000042833</v>
+        <v>-14370.648130579113</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D250">
         <f t="shared" si="12"/>
-        <v>-13368.52182451083</v>
+        <v>-12577.247548752635</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D251">
         <f t="shared" si="12"/>
-        <v>-11526.342539036157</v>
+        <v>-10678.329934275624</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D252">
         <f t="shared" si="12"/>
-        <v>-9833.5010141603088</v>
+        <v>-8931.6733666692198</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D253">
         <f t="shared" si="12"/>
-        <v>-8305.7362399567683</v>
+        <v>-7352.8670861329547</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D254">
         <f t="shared" si="12"/>
-        <v>-6783.8260831871776</v>
+        <v>-5782.5468426802217</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D255">
         <f t="shared" si="12"/>
-        <v>-5294.0644520181195</v>
+        <v>-4246.8716734595764</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D256">
         <f t="shared" si="12"/>
-        <v>-4037.3020960899935</v>
+        <v>-2946.5643350142705</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D257">
         <f t="shared" si="12"/>
-        <v>-3219.2294576318704</v>
+        <v>-3147.8365064775844</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D258">
         <f t="shared" si="12"/>
-        <v>-1989.4405203325098</v>
+        <v>-1878.8815017332893</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D259">
         <f t="shared" si="12"/>
-        <v>-881.24223064829289</v>
+        <v>-733.53958369060547</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D260">
         <f>G227</f>
-        <v>224.1036013303185</v>
+        <v>407.03123886201615</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D261">
         <f t="shared" si="12"/>
-        <v>1306.9038494457182</v>
+        <v>1523.2363412603679</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D262">
         <f t="shared" si="12"/>
-        <v>2217.2118232750372</v>
+        <v>2465.2225041329425</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D263">
         <f t="shared" si="12"/>
-        <v>3190.6110450330871</v>
+        <v>3468.6619460341981</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D264">
         <f t="shared" si="12"/>
-        <v>4083.348420189815</v>
+        <v>4389.8857368439658</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D265">
         <f t="shared" si="12"/>
-        <v>4884.818616413123</v>
+        <v>5218.3684071971402</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D266">
         <f t="shared" si="12"/>
-        <v>5685.3809414227944</v>
+        <v>6044.5450451498318</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D267">
         <f t="shared" si="12"/>
-        <v>6470.2816141768653</v>
+        <v>6853.7337750925435</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D268">
         <f t="shared" si="12"/>
-        <v>7127.5724388323706</v>
+        <v>7534.0546289118802</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D269">
         <f t="shared" si="12"/>
-        <v>7542.6154074508295</v>
+        <v>7380.3287925070663</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D270">
         <f t="shared" si="12"/>
-        <v>8188.8514031854174</v>
+        <v>8047.2696602760261</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D271">
         <f t="shared" si="12"/>
-        <v>8769.2227888726138</v>
+        <v>8647.2723320402565</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D272">
         <f t="shared" si="12"/>
-        <v>9349.7594696858414</v>
+        <v>9246.4220094316242</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D273">
         <f t="shared" si="12"/>
-        <v>9919.411815500418</v>
+        <v>9833.7215268897944</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D274">
         <f>G241</f>
-        <v>10394.604138426383</v>
+        <v>10325.644973510456</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
@@ -5943,12 +5951,12 @@
       </c>
       <c r="D275">
         <f>ROUND(C211,2)</f>
-        <v>26209.26</v>
+        <v>25829.26</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D276">
         <f>K238</f>
@@ -5971,7 +5979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E504FB3-0E2B-2E44-8A34-6E570F9AA6DE}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -5984,388 +5992,388 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
       </c>
       <c r="D2">
         <f>'calculation-sheet'!$D244</f>
-        <v>-26209.259259259263</v>
+        <v>-25829.259259259263</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
       </c>
       <c r="D3">
         <f>'calculation-sheet'!G212</f>
-        <v>-23677.515259259264</v>
+        <v>-23219.610764021167</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
       </c>
       <c r="D4">
         <f>'calculation-sheet'!D246</f>
-        <v>-21348.900406470148</v>
+        <v>-20817.097932891917</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="D5">
         <f>'calculation-sheet'!D247</f>
-        <v>-19244.363487865245</v>
+        <v>-18642.464633991149</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
       </c>
       <c r="D6">
         <f>'calculation-sheet'!D248</f>
-        <v>-17150.395459646548</v>
+        <v>-16482.007335676146</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
       </c>
       <c r="D7">
         <f>'calculation-sheet'!D249</f>
-        <v>-15102.103000042833</v>
+        <v>-14370.648130579113</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
       </c>
       <c r="D8">
         <f>'calculation-sheet'!D250</f>
-        <v>-13368.52182451083</v>
+        <v>-12577.247548752635</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
       </c>
       <c r="D9">
         <f>'calculation-sheet'!D251</f>
-        <v>-11526.342539036157</v>
+        <v>-10678.329934275624</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
       </c>
       <c r="D10">
         <f>'calculation-sheet'!D252</f>
-        <v>-9833.5010141603088</v>
+        <v>-8931.6733666692198</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
       </c>
       <c r="D11">
         <f>'calculation-sheet'!D253</f>
-        <v>-8305.7362399567683</v>
+        <v>-7352.8670861329547</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
       </c>
       <c r="D12">
         <f>'calculation-sheet'!D254</f>
-        <v>-6783.8260831871776</v>
+        <v>-5782.5468426802217</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
       </c>
       <c r="D13">
         <f>'calculation-sheet'!D255</f>
-        <v>-5294.0644520181195</v>
+        <v>-4246.8716734595764</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
       </c>
       <c r="D14">
         <f>'calculation-sheet'!D256</f>
-        <v>-4037.3020960899935</v>
+        <v>-2946.5643350142705</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
       </c>
       <c r="D15">
         <f>'calculation-sheet'!D257</f>
-        <v>-3219.2294576318704</v>
+        <v>-3147.8365064775844</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
       </c>
       <c r="D16">
         <f>'calculation-sheet'!D258</f>
-        <v>-1989.4405203325098</v>
+        <v>-1878.8815017332893</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
       </c>
       <c r="D17">
         <f>'calculation-sheet'!D259</f>
-        <v>-881.24223064829289</v>
+        <v>-733.53958369060547</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
       </c>
       <c r="D18">
         <f>'calculation-sheet'!D260</f>
-        <v>224.1036013303185</v>
+        <v>407.03123886201615</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
       </c>
       <c r="D19">
         <f>'calculation-sheet'!D261</f>
-        <v>1306.9038494457182</v>
+        <v>1523.2363412603679</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
       </c>
       <c r="D20">
         <f>'calculation-sheet'!D262</f>
-        <v>2217.2118232750372</v>
+        <v>2465.2225041329425</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
       </c>
       <c r="D21">
         <f>'calculation-sheet'!D263</f>
-        <v>3190.6110450330871</v>
+        <v>3468.6619460341981</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
       </c>
       <c r="D22">
         <f>'calculation-sheet'!D264</f>
-        <v>4083.348420189815</v>
+        <v>4389.8857368439658</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B23" t="s">
         <v>30</v>
       </c>
       <c r="D23">
         <f>'calculation-sheet'!D265</f>
-        <v>4884.818616413123</v>
+        <v>5218.3684071971402</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
       </c>
       <c r="D24">
         <f>'calculation-sheet'!D266</f>
-        <v>5685.3809414227944</v>
+        <v>6044.5450451498318</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
       </c>
       <c r="D25">
         <f>'calculation-sheet'!D267</f>
-        <v>6470.2816141768653</v>
+        <v>6853.7337750925435</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
       </c>
       <c r="D26">
         <f>'calculation-sheet'!D268</f>
-        <v>7127.5724388323706</v>
+        <v>7534.0546289118802</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
       </c>
       <c r="D27">
         <f>'calculation-sheet'!D269</f>
-        <v>7542.6154074508295</v>
+        <v>7380.3287925070663</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
       <c r="D28">
         <f>'calculation-sheet'!D270</f>
-        <v>8188.8514031854174</v>
+        <v>8047.2696602760261</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
       </c>
       <c r="D29">
         <f>'calculation-sheet'!D271</f>
-        <v>8769.2227888726138</v>
+        <v>8647.2723320402565</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
       <c r="D30">
         <f>'calculation-sheet'!D272</f>
-        <v>9349.7594696858414</v>
+        <v>9246.4220094316242</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
       </c>
       <c r="D31">
         <f>'calculation-sheet'!D273</f>
-        <v>9919.411815500418</v>
+        <v>9833.7215268897944</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
       </c>
       <c r="D32">
         <f>'calculation-sheet'!D274</f>
-        <v>10394.604138426383</v>
+        <v>10325.644973510456</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -6377,12 +6385,12 @@
       </c>
       <c r="D33">
         <f>'calculation-sheet'!D275</f>
-        <v>26209.26</v>
+        <v>25829.26</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B34" t="s">
         <v>26</v>

--- a/break_even2.xlsx
+++ b/break_even2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nanebecher/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nanebecher/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876B043A-B985-9547-9F8F-4818C02D9E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF2BEB0-7928-8648-BA35-93326E5A204B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{10AE25AE-CBB9-6C48-A0BD-F3B6274A0E75}"/>
   </bookViews>
@@ -890,15 +890,6 @@
     <t>Inbetrieb</t>
   </si>
   <si>
-    <t>Neubau</t>
-  </si>
-  <si>
-    <t>Erdgas</t>
-  </si>
-  <si>
-    <t>ja</t>
-  </si>
-  <si>
     <t>JEB_Wärme</t>
   </si>
   <si>
@@ -915,6 +906,15 @@
   </si>
   <si>
     <t>Planung</t>
+  </si>
+  <si>
+    <t>Sanierung</t>
+  </si>
+  <si>
+    <t>Heizöl</t>
+  </si>
+  <si>
+    <t>nein</t>
   </si>
 </sst>
 </file>
@@ -1374,7 +1374,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1402,7 +1402,7 @@
         <v>262</v>
       </c>
       <c r="D2" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1410,7 +1410,7 @@
         <v>263</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1429,7 +1429,7 @@
         <v>187</v>
       </c>
       <c r="D5">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1437,7 +1437,7 @@
         <v>185</v>
       </c>
       <c r="D6" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1475,7 +1475,7 @@
         <v>187</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1502,7 +1502,7 @@
         <v>187</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1521,7 +1521,7 @@
         <v>187</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1537,7 +1537,7 @@
         <v>186</v>
       </c>
       <c r="D17" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1545,12 +1545,12 @@
         <v>275</v>
       </c>
       <c r="D18" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B19" t="s">
         <v>56</v>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B20" t="s">
         <v>56</v>
@@ -1582,8 +1582,8 @@
   </sheetPr>
   <dimension ref="A1:Q276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="C212" sqref="C212"/>
+    <sheetView tabSelected="1" topLeftCell="A205" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="E193" sqref="E193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="D2" t="str">
         <f>'viktor-input-sheet'!D2</f>
-        <v>Neubau</v>
+        <v>Sanierung</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="D3">
         <f>'viktor-input-sheet'!D3</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="D5">
         <f>'viktor-input-sheet'!D5</f>
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1658,7 +1658,7 @@
       </c>
       <c r="D6" t="str">
         <f>'viktor-input-sheet'!D6</f>
-        <v>Erdgas</v>
+        <v>Heizöl</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1694,7 +1694,7 @@
       </c>
       <c r="D10">
         <f>'viktor-input-sheet'!D10</f>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="D13">
         <f>'viktor-input-sheet'!D13</f>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="D15">
         <f>'viktor-input-sheet'!D15</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="D17" t="str">
         <f>'viktor-input-sheet'!D17</f>
-        <v>ja</v>
+        <v>nein</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -1766,12 +1766,12 @@
       </c>
       <c r="D18" t="str">
         <f>'viktor-input-sheet'!D18</f>
-        <v>bis 31.01.2024</v>
+        <v>ab 01.08.2025</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D19">
         <f>'viktor-input-sheet'!D19</f>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D20">
         <f>'viktor-input-sheet'!D20</f>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="C27">
         <f>(IF(D111&lt;10,HLOOKUP(D18,C28:H32,3,0),0)+IF(AND(D111&lt;40,D111&gt;=10),HLOOKUP(D18,C28:H32,4,0),0)+IF(AND(D111&lt;=100,D111&gt;=40),HLOOKUP(D18,C28:H32,5,0),0))/100</f>
-        <v>8.199999999999999E-2</v>
+        <v>7.8611256859999992E-2</v>
       </c>
       <c r="D27" t="s">
         <v>27</v>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="D59" s="4">
         <f>D60+D69+D79+D88</f>
-        <v>20829.259259259263</v>
+        <v>26681.011111111111</v>
       </c>
       <c r="E59" t="s">
         <v>30</v>
@@ -2551,7 +2551,7 @@
       <c r="C61" s="6"/>
       <c r="D61" s="4">
         <f>IF(G60&gt;20,(D62+D63)*G60+D64,D62*G60+1600+D64)</f>
-        <v>2583.3333333333335</v>
+        <v>2550</v>
       </c>
       <c r="E61" t="s">
         <v>30</v>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="D64" s="4">
         <f>IF($D$111&lt;=3,450, IF($D$111&lt;=6,'calculation-sheet'!$L$66,IF($D$111&lt;=9,'calculation-sheet'!$L$67, IF($D$111&lt;=15,'calculation-sheet'!$L$68,2000))))</f>
-        <v>983.33333333333337</v>
+        <v>950</v>
       </c>
       <c r="E64" t="s">
         <v>30</v>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="L66">
         <f>500/3*'calculation-sheet'!D111-50</f>
-        <v>1283.3333333333333</v>
+        <v>950</v>
       </c>
       <c r="N66" t="s">
         <v>5</v>
@@ -2742,7 +2742,7 @@
       </c>
       <c r="L67">
         <f>50/3*'calculation-sheet'!D111+850</f>
-        <v>983.33333333333337</v>
+        <v>950</v>
       </c>
       <c r="N67" t="s">
         <v>5</v>
@@ -2774,7 +2774,7 @@
       </c>
       <c r="L68">
         <f>500/6*'calculation-sheet'!D111+250</f>
-        <v>916.66666666666663</v>
+        <v>750</v>
       </c>
       <c r="N68" t="s">
         <v>6</v>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="D69" s="4">
         <f>IF(G69=0,0,D70+D75*G69+D76+D77+D78)</f>
-        <v>11999.325925925927</v>
+        <v>0</v>
       </c>
       <c r="E69" t="s">
         <v>30</v>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="G69" s="6">
         <f>D10</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H69" t="s">
         <v>34</v>
@@ -2843,7 +2843,7 @@
       <c r="C70" s="6"/>
       <c r="D70" s="4">
         <f>(D71+D72)*G69+D73+D74</f>
-        <v>10583.333333333334</v>
+        <v>950</v>
       </c>
       <c r="E70" t="s">
         <v>30</v>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="D73" s="4">
         <f>IF($D$111&lt;=3,450, IF($D$111&lt;=6,'calculation-sheet'!$L$66,IF($D$111&lt;=9,'calculation-sheet'!$L$67, IF($D$111&lt;=15,'calculation-sheet'!$L$68,2000))))</f>
-        <v>983.33333333333337</v>
+        <v>950</v>
       </c>
       <c r="E73" t="s">
         <v>30</v>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="D77" s="4">
         <f>(D70+D76+D75*G69)*10/90</f>
-        <v>1542.5925925925926</v>
+        <v>327.77777777777777</v>
       </c>
       <c r="E77" t="s">
         <v>30</v>
@@ -3065,7 +3065,7 @@
       </c>
       <c r="D78" s="4">
         <f>-IF(G121="Bestand",0,171.33*G69)</f>
-        <v>-3426.6000000000004</v>
+        <v>0</v>
       </c>
       <c r="E78" t="s">
         <v>30</v>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="D79" s="4">
         <f>IF(G79=0,0,D80+D84*G79+D85+D86+D87)</f>
-        <v>8829.9333333333343</v>
+        <v>0</v>
       </c>
       <c r="E79" t="s">
         <v>30</v>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="G79" s="6">
         <f>D13</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H79" t="s">
         <v>34</v>
@@ -3133,7 +3133,7 @@
       <c r="C80" s="6"/>
       <c r="D80" s="4">
         <f>IF(G79&gt;20,(D81+D82)*G79+D83,D81*G79 + 3200 + D83)</f>
-        <v>9183.3333333333339</v>
+        <v>4150</v>
       </c>
       <c r="E80" t="s">
         <v>30</v>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="D83" s="4">
         <f>IF($D$111&lt;=3,450, IF($D$111&lt;=6,'calculation-sheet'!$L$66,IF($D$111&lt;=9,'calculation-sheet'!$L$67, IF($D$111&lt;=15,'calculation-sheet'!$L$68,2000))))</f>
-        <v>983.33333333333337</v>
+        <v>950</v>
       </c>
       <c r="E83" t="s">
         <v>30</v>
@@ -3266,7 +3266,7 @@
       </c>
       <c r="D87" s="4">
         <f>-IF(G121="Bestand",0,197.67*G79)</f>
-        <v>-3953.3999999999996</v>
+        <v>0</v>
       </c>
       <c r="E87" t="s">
         <v>30</v>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="D88" s="4">
         <f>IF(G88=0,0,D89+D94*G88+D95+D96+D97)</f>
-        <v>0</v>
+        <v>26681.011111111111</v>
       </c>
       <c r="E88" t="s">
         <v>30</v>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="G88" s="6">
         <f>D15</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H88" t="s">
         <v>34</v>
@@ -3310,7 +3310,7 @@
       <c r="C89" s="6"/>
       <c r="D89" s="4">
         <f>(D90+D91)*G88+D92+D93</f>
-        <v>983.33333333333337</v>
+        <v>23450</v>
       </c>
       <c r="E89" t="s">
         <v>30</v>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="D92" s="4">
         <f>IF($D$111&lt;=3,450, IF($D$111&lt;=6,'calculation-sheet'!$L$66,IF($D$111&lt;=9,'calculation-sheet'!$L$67, IF($D$111&lt;=15,'calculation-sheet'!$L$68,2000))))</f>
-        <v>983.33333333333337</v>
+        <v>950</v>
       </c>
       <c r="E92" t="s">
         <v>30</v>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="D96" s="4">
         <f>(D89+D95+D94*G88)*10/90</f>
-        <v>331.48148148148152</v>
+        <v>3261.1111111111113</v>
       </c>
       <c r="E96" t="s">
         <v>30</v>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="D97" s="4">
         <f>-IF(G121="Bestand",0,197.67*G88)</f>
-        <v>0</v>
+        <v>-5930.0999999999995</v>
       </c>
       <c r="E97" t="s">
         <v>30</v>
@@ -3527,7 +3527,7 @@
       </c>
       <c r="D104" s="4">
         <f>D64+2000</f>
-        <v>2983.3333333333335</v>
+        <v>2950</v>
       </c>
       <c r="E104" t="s">
         <v>145</v>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="D110" s="4">
         <f>G60+G69+G79+G88</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E110" t="s">
         <v>34</v>
@@ -3593,7 +3593,7 @@
       <c r="A111" s="6"/>
       <c r="D111" s="4">
         <f>D110*0.2</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E111" t="s">
         <v>109</v>
@@ -3683,7 +3683,7 @@
       </c>
       <c r="G119">
         <f>D3</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J119" s="4"/>
     </row>
@@ -3726,7 +3726,7 @@
       </c>
       <c r="G121" t="str">
         <f>D2</f>
-        <v>Neubau</v>
+        <v>Sanierung</v>
       </c>
       <c r="H121" t="s">
         <v>121</v>
@@ -3737,7 +3737,7 @@
       <c r="A122" s="6"/>
       <c r="D122">
         <f>IF(G121="Neubau",G122*D120,0)+IF(G121="Bestand",G122*D121,0)+IF(G121="Sanierung",G122*D120,0)</f>
-        <v>22000</v>
+        <v>27500</v>
       </c>
       <c r="E122" t="s">
         <v>56</v>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="G122">
         <f>D5</f>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H122" t="s">
         <v>34</v>
@@ -3767,7 +3767,7 @@
       </c>
       <c r="D124">
         <f>IF(G119&gt;2,G119*C128,G120*C126)</f>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="E124" t="s">
         <v>56</v>
@@ -3824,7 +3824,7 @@
       </c>
       <c r="D130">
         <f>IF(G119&gt;2,G119*C139,IF(G120=B132,C132,0)+IF(G120=B133,C133,0)+IF(G120=B134,C134,0)+IF(G120=B135,C135,0)+IF(G120=B136,C136,0)+IF(G120=B137,C137,0))</f>
-        <v>8100</v>
+        <v>15000</v>
       </c>
       <c r="E130" t="s">
         <v>56</v>
@@ -4086,7 +4086,7 @@
       </c>
       <c r="D153">
         <f>IF(H153="ja", 0.6,0.3)</f>
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="F153" t="s">
         <v>146</v>
@@ -4094,7 +4094,7 @@
       <c r="G153"/>
       <c r="H153" t="str">
         <f>D17</f>
-        <v>ja</v>
+        <v>nein</v>
       </c>
       <c r="J153" s="4"/>
     </row>
@@ -4144,14 +4144,14 @@
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D161">
         <v>0.25</v>
       </c>
       <c r="E161">
         <f>(IF(G69=0,0,(D71+D72+D75)*G69)+IF(G88=0,0,(D90+D91+D94)*G88))*D161</f>
-        <v>2725</v>
+        <v>6600</v>
       </c>
       <c r="F161">
         <v>60000</v>
@@ -4160,7 +4160,7 @@
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D162">
         <v>0.1</v>
@@ -4173,18 +4173,18 @@
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D163" s="5">
         <v>0.5</v>
       </c>
       <c r="E163">
         <f>(IF(G69=0,0,D77)+IF(G88=0,0,D96))*D163</f>
-        <v>771.2962962962963</v>
+        <v>1630.5555555555557</v>
       </c>
       <c r="F163">
         <f>IF(D3&lt;11,IF(D3&gt;2,2000*D3,5000),20000)</f>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="J163" s="4"/>
     </row>
@@ -4195,7 +4195,7 @@
       <c r="D165" s="5"/>
       <c r="E165">
         <f>-IF(D2="Neubau",0,IF(E161&lt;F161,E161,F161)+E162+IF(E163&lt;F163,E163,F163))</f>
-        <v>0</v>
+        <v>-8430.5555555555547</v>
       </c>
       <c r="J165" s="4"/>
     </row>
@@ -4280,7 +4280,7 @@
       </c>
       <c r="E176" cm="1">
         <f t="array" ref="E176">VLOOKUP('calculation-sheet'!G61&amp;'calculation-sheet'!G62,CHOOSE({1,2},N28:N81&amp;P28:P81,Q28:Q81),2,0)/100*$D$114*$D$115*G60+VLOOKUP(G80&amp;G81,CHOOSE({1,2},N28:N81&amp;P28:P81,Q28:Q81),2,0)/100*'calculation-sheet'!$D$114*'calculation-sheet'!$D$115*'calculation-sheet'!G79</f>
-        <v>2724</v>
+        <v>0</v>
       </c>
       <c r="F176" t="s">
         <v>76</v>
@@ -4296,7 +4296,7 @@
       </c>
       <c r="E177">
         <f>E178+E179</f>
-        <v>17271.800000000003</v>
+        <v>7835.0999999999995</v>
       </c>
       <c r="F177" t="s">
         <v>76</v>
@@ -4312,7 +4312,7 @@
       </c>
       <c r="E178" cm="1">
         <f t="array" ref="E178">VLOOKUP(G70&amp;G71,CHOOSE({1,2},N28:N81&amp;P28:P81,Q28:Q81),2,0)/100*'calculation-sheet'!G69*'calculation-sheet'!D116+VLOOKUP(G89&amp;G90,CHOOSE({1,2},N28:N81&amp;P28:P81,Q28:Q81),2,0)/100*G88*D116</f>
-        <v>13475.800000000001</v>
+        <v>6113.0999999999995</v>
       </c>
       <c r="F178" t="s">
         <v>76</v>
@@ -4328,7 +4328,7 @@
       </c>
       <c r="E179" cm="1">
         <f t="array" ref="E179">VLOOKUP(G70&amp;G71,CHOOSE({1,2},N28:N81&amp;P28:P81,Q28:Q81),2,0)/100*D114*D115*G69+VLOOKUP(G89&amp;G90,CHOOSE({1,2},N28:N81&amp;P28:P81,Q28:Q81),2,0)/100*D114*D115*G88</f>
-        <v>3796.0000000000009</v>
+        <v>1722.0000000000002</v>
       </c>
       <c r="F179" t="s">
         <v>76</v>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="E187">
         <f>E188+E189</f>
-        <v>33100</v>
+        <v>47500</v>
       </c>
       <c r="F187" t="s">
         <v>76</v>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="E188">
         <f>D130</f>
-        <v>8100</v>
+        <v>15000</v>
       </c>
       <c r="F188" t="s">
         <v>76</v>
@@ -4423,7 +4423,7 @@
       </c>
       <c r="E189">
         <f>D124+D122</f>
-        <v>25000</v>
+        <v>32500</v>
       </c>
       <c r="F189" t="s">
         <v>76</v>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="E192">
         <f>D153</f>
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="G192"/>
       <c r="J192"/>
@@ -4464,7 +4464,7 @@
       </c>
       <c r="E193">
         <f>IF((E176*E192+E179*E192)&gt;E188,E188,E176*E192+E179*E192)</f>
-        <v>3912</v>
+        <v>516.6</v>
       </c>
       <c r="F193" t="s">
         <v>76</v>
@@ -4480,7 +4480,7 @@
       </c>
       <c r="E194">
         <f>E176+E179-E193</f>
-        <v>2608.0000000000009</v>
+        <v>1205.4000000000001</v>
       </c>
       <c r="F194" t="s">
         <v>76</v>
@@ -4496,7 +4496,7 @@
       </c>
       <c r="E195">
         <f>IF(E178&lt;E189*0.6,E178,E189*0.6)</f>
-        <v>13475.800000000001</v>
+        <v>6113.0999999999995</v>
       </c>
       <c r="F195" t="s">
         <v>76</v>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="E200">
         <f>E194*C27</f>
-        <v>213.85600000000005</v>
+        <v>94.758009019043996</v>
       </c>
       <c r="G200"/>
       <c r="H200" s="6" t="s">
@@ -4561,7 +4561,7 @@
       </c>
       <c r="E201">
         <f>E194*B34</f>
-        <v>208.64000000000007</v>
+        <v>96.432000000000016</v>
       </c>
       <c r="G201"/>
       <c r="J201"/>
@@ -4573,7 +4573,7 @@
       </c>
       <c r="E202">
         <f>E193*B23</f>
-        <v>1367.6352000000002</v>
+        <v>180.60336000000001</v>
       </c>
       <c r="G202"/>
       <c r="J202"/>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="E203">
         <f>IF(D6="Heizöl",E195*B25,E195*B24)</f>
-        <v>1258.6397200000001</v>
+        <v>601.10112299999992</v>
       </c>
       <c r="G203"/>
       <c r="J203"/>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="E205" s="5">
         <f>D102*D110</f>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G205"/>
       <c r="J205"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="E207" s="5">
         <f>D104</f>
-        <v>2983.3333333333335</v>
+        <v>2950</v>
       </c>
       <c r="G207"/>
       <c r="J207"/>
@@ -4683,11 +4683,11 @@
       </c>
       <c r="C211">
         <f>D59+IF(H153="ja",D157,0)+E165</f>
-        <v>25829.259259259263</v>
+        <v>18250.455555555556</v>
       </c>
       <c r="D211">
         <f t="shared" ref="D211:D241" si="5">B211-C211</f>
-        <v>-25829.259259259263</v>
+        <v>-18250.455555555556</v>
       </c>
       <c r="E211">
         <f>1/((1+0.05)^A211)</f>
@@ -4695,11 +4695,11 @@
       </c>
       <c r="F211">
         <f>D211*E211</f>
-        <v>-25829.259259259263</v>
+        <v>-18250.455555555556</v>
       </c>
       <c r="G211">
         <f>F211</f>
-        <v>-25829.259259259263</v>
+        <v>-18250.455555555556</v>
       </c>
       <c r="J211"/>
       <c r="M211"/>
@@ -4710,7 +4710,7 @@
       </c>
       <c r="B212">
         <f>$E$200+$E$202+$E$203</f>
-        <v>2840.1309200000005</v>
+        <v>876.46249201904391</v>
       </c>
       <c r="C212">
         <f>$E$204+IF(ISEVEN(A212),$E$205,0)</f>
@@ -4718,7 +4718,7 @@
       </c>
       <c r="D212">
         <f t="shared" si="5"/>
-        <v>2740.1309200000005</v>
+        <v>776.46249201904391</v>
       </c>
       <c r="E212">
         <f t="shared" ref="E212:E241" si="6">1/((1+0.05)^A212)</f>
@@ -4726,11 +4726,11 @@
       </c>
       <c r="F212">
         <f>D212*E212</f>
-        <v>2609.6484952380956</v>
+        <v>739.48808763718466</v>
       </c>
       <c r="G212">
         <f>G211+F212</f>
-        <v>-23219.610764021167</v>
+        <v>-17510.96746791837</v>
       </c>
       <c r="J212"/>
       <c r="M212"/>
@@ -4741,15 +4741,15 @@
       </c>
       <c r="B213">
         <f>($E$200+$E$202+$E$203)*(100-0.4*(A213-1))/100</f>
-        <v>2828.7703963200001</v>
+        <v>872.95664205096762</v>
       </c>
       <c r="C213">
         <f t="shared" ref="C213:C240" si="7">$E$204+IF(ISEVEN(A213),$E$205,0)</f>
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="D213">
         <f t="shared" si="5"/>
-        <v>2648.7703963200001</v>
+        <v>712.95664205096762</v>
       </c>
       <c r="E213">
         <f t="shared" si="6"/>
@@ -4757,11 +4757,11 @@
       </c>
       <c r="F213">
         <f t="shared" ref="F213:F241" si="8">D213*E213</f>
-        <v>2402.5128311292515</v>
+        <v>646.67269120269168</v>
       </c>
       <c r="G213">
         <f>G212+F213</f>
-        <v>-20817.097932891917</v>
+        <v>-16864.294776715677</v>
       </c>
       <c r="J213"/>
       <c r="M213"/>
@@ -4772,7 +4772,7 @@
       </c>
       <c r="B214">
         <f t="shared" ref="B214:B229" si="9">($E$200+$E$202+$E$203)*(100-0.4*(A214-1))/100</f>
-        <v>2817.4098726400007</v>
+        <v>869.45079208289155</v>
       </c>
       <c r="C214">
         <f>$E$204+IF(ISEVEN(A214),$E$205,0)+E206</f>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="D214">
         <f t="shared" si="5"/>
-        <v>2517.4098726400007</v>
+        <v>569.45079208289155</v>
       </c>
       <c r="E214">
         <f t="shared" si="6"/>
@@ -4788,11 +4788,11 @@
       </c>
       <c r="F214">
         <f t="shared" si="8"/>
-        <v>2174.6332989007669</v>
+        <v>491.91300471473187</v>
       </c>
       <c r="G214">
         <f>G213+F214</f>
-        <v>-18642.464633991149</v>
+        <v>-16372.381772000945</v>
       </c>
       <c r="J214"/>
       <c r="M214"/>
@@ -4803,15 +4803,15 @@
       </c>
       <c r="B215">
         <f t="shared" si="9"/>
-        <v>2806.0493489600003</v>
+        <v>865.94494211481538</v>
       </c>
       <c r="C215">
         <f t="shared" si="7"/>
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="D215">
         <f t="shared" si="5"/>
-        <v>2626.0493489600003</v>
+        <v>705.94494211481538</v>
       </c>
       <c r="E215">
         <f t="shared" si="6"/>
@@ -4819,11 +4819,11 @@
       </c>
       <c r="F215">
         <f t="shared" si="8"/>
-        <v>2160.4572983150028</v>
+        <v>580.78265094467042</v>
       </c>
       <c r="G215">
         <f t="shared" ref="G215:G241" si="10">G214+F215</f>
-        <v>-16482.007335676146</v>
+        <v>-15791.599121056275</v>
       </c>
       <c r="J215"/>
       <c r="M215"/>
@@ -4834,7 +4834,7 @@
       </c>
       <c r="B216">
         <f t="shared" si="9"/>
-        <v>2794.6888252800004</v>
+        <v>862.43909214673931</v>
       </c>
       <c r="C216">
         <f t="shared" si="7"/>
@@ -4842,7 +4842,7 @@
       </c>
       <c r="D216">
         <f t="shared" si="5"/>
-        <v>2694.6888252800004</v>
+        <v>762.43909214673931</v>
       </c>
       <c r="E216">
         <f t="shared" si="6"/>
@@ -4850,11 +4850,11 @@
       </c>
       <c r="F216">
         <f t="shared" si="8"/>
-        <v>2111.3592050970337</v>
+        <v>597.39097903542677</v>
       </c>
       <c r="G216">
         <f t="shared" si="10"/>
-        <v>-14370.648130579113</v>
+        <v>-15194.208142020849</v>
       </c>
       <c r="J216"/>
       <c r="M216"/>
@@ -4865,15 +4865,15 @@
       </c>
       <c r="B217">
         <f t="shared" si="9"/>
-        <v>2783.3283016000005</v>
+        <v>858.93324217866302</v>
       </c>
       <c r="C217">
         <f>$E$204+IF(ISEVEN(A217),$E$205,0)+E206</f>
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="D217">
         <f t="shared" si="5"/>
-        <v>2403.3283016000005</v>
+        <v>498.93324217866302</v>
       </c>
       <c r="E217">
         <f t="shared" si="6"/>
@@ -4881,11 +4881,11 @@
       </c>
       <c r="F217">
         <f t="shared" si="8"/>
-        <v>1793.400581826477</v>
+        <v>372.31166720754959</v>
       </c>
       <c r="G217">
         <f t="shared" si="10"/>
-        <v>-12577.247548752635</v>
+        <v>-14821.896474813298</v>
       </c>
       <c r="J217"/>
       <c r="M217"/>
@@ -4896,7 +4896,7 @@
       </c>
       <c r="B218">
         <f t="shared" si="9"/>
-        <v>2771.9677779200006</v>
+        <v>855.42739221058685</v>
       </c>
       <c r="C218">
         <f t="shared" si="7"/>
@@ -4904,7 +4904,7 @@
       </c>
       <c r="D218">
         <f t="shared" si="5"/>
-        <v>2671.9677779200006</v>
+        <v>755.42739221058685</v>
       </c>
       <c r="E218">
         <f t="shared" si="6"/>
@@ -4912,11 +4912,11 @@
       </c>
       <c r="F218">
         <f t="shared" si="8"/>
-        <v>1898.9176144770111</v>
+        <v>536.86814391294877</v>
       </c>
       <c r="G218">
         <f t="shared" si="10"/>
-        <v>-10678.329934275624</v>
+        <v>-14285.02833090035</v>
       </c>
       <c r="J218"/>
       <c r="M218"/>
@@ -4927,15 +4927,15 @@
       </c>
       <c r="B219">
         <f t="shared" si="9"/>
-        <v>2760.6072542400007</v>
+        <v>851.92154224251078</v>
       </c>
       <c r="C219">
         <f t="shared" si="7"/>
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="D219">
         <f t="shared" si="5"/>
-        <v>2580.6072542400007</v>
+        <v>691.92154224251078</v>
       </c>
       <c r="E219">
         <f t="shared" si="6"/>
@@ -4943,11 +4943,11 @@
       </c>
       <c r="F219">
         <f t="shared" si="8"/>
-        <v>1746.6565676064042</v>
+        <v>468.31973522532633</v>
       </c>
       <c r="G219">
         <f t="shared" si="10"/>
-        <v>-8931.6733666692198</v>
+        <v>-13816.708595675023</v>
       </c>
       <c r="J219"/>
       <c r="M219"/>
@@ -4958,7 +4958,7 @@
       </c>
       <c r="B220">
         <f t="shared" si="9"/>
-        <v>2749.2467305600003</v>
+        <v>848.41569227443438</v>
       </c>
       <c r="C220">
         <f>$E$204+IF(ISEVEN(A220),$E$205,0)+E206</f>
@@ -4966,7 +4966,7 @@
       </c>
       <c r="D220">
         <f t="shared" si="5"/>
-        <v>2449.2467305600003</v>
+        <v>548.41569227443438</v>
       </c>
       <c r="E220">
         <f t="shared" si="6"/>
@@ -4974,11 +4974,11 @@
       </c>
       <c r="F220">
         <f t="shared" si="8"/>
-        <v>1578.8062805362651</v>
+        <v>353.51364503385616</v>
       </c>
       <c r="G220">
         <f t="shared" si="10"/>
-        <v>-7352.8670861329547</v>
+        <v>-13463.194950641167</v>
       </c>
       <c r="J220"/>
       <c r="M220"/>
@@ -4989,15 +4989,15 @@
       </c>
       <c r="B221">
         <f t="shared" si="9"/>
-        <v>2737.8862068800004</v>
+        <v>844.90984230635831</v>
       </c>
       <c r="C221">
         <f t="shared" si="7"/>
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="D221">
         <f t="shared" si="5"/>
-        <v>2557.8862068800004</v>
+        <v>684.90984230635831</v>
       </c>
       <c r="E221">
         <f t="shared" si="6"/>
@@ -5005,11 +5005,11 @@
       </c>
       <c r="F221">
         <f t="shared" si="8"/>
-        <v>1570.3202434527327</v>
+        <v>420.47522967238484</v>
       </c>
       <c r="G221">
         <f t="shared" si="10"/>
-        <v>-5782.5468426802217</v>
+        <v>-13042.719720968782</v>
       </c>
       <c r="J221"/>
       <c r="M221"/>
@@ -5020,7 +5020,7 @@
       </c>
       <c r="B222">
         <f t="shared" si="9"/>
-        <v>2726.5256832000009</v>
+        <v>841.40399233828214</v>
       </c>
       <c r="C222">
         <f t="shared" si="7"/>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="D222">
         <f t="shared" si="5"/>
-        <v>2626.5256832000009</v>
+        <v>741.40399233828214</v>
       </c>
       <c r="E222">
         <f t="shared" si="6"/>
@@ -5036,11 +5036,11 @@
       </c>
       <c r="F222">
         <f t="shared" si="8"/>
-        <v>1535.6751692206458</v>
+        <v>433.48355916619329</v>
       </c>
       <c r="G222">
         <f t="shared" si="10"/>
-        <v>-4246.8716734595764</v>
+        <v>-12609.236161802588</v>
       </c>
       <c r="J222"/>
       <c r="M222"/>
@@ -5051,15 +5051,15 @@
       </c>
       <c r="B223">
         <f t="shared" si="9"/>
-        <v>2715.1651595200005</v>
+        <v>837.89814237020585</v>
       </c>
       <c r="C223">
         <f>$E$204+IF(ISEVEN(A223),$E$205,0)+E206</f>
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="D223">
         <f t="shared" si="5"/>
-        <v>2335.1651595200005</v>
+        <v>477.89814237020585</v>
       </c>
       <c r="E223">
         <f t="shared" si="6"/>
@@ -5067,11 +5067,11 @@
       </c>
       <c r="F223">
         <f t="shared" si="8"/>
-        <v>1300.307338445306</v>
+        <v>266.11156774927719</v>
       </c>
       <c r="G223">
         <f t="shared" si="10"/>
-        <v>-2946.5643350142705</v>
+        <v>-12343.12459405331</v>
       </c>
       <c r="J223"/>
       <c r="M223"/>
@@ -5082,15 +5082,15 @@
       </c>
       <c r="B224">
         <f t="shared" si="9"/>
-        <v>2703.8046358400006</v>
+        <v>834.39229240212978</v>
       </c>
       <c r="C224">
         <f>$E$204+IF(ISEVEN(A224),$E$205,0)+E207</f>
-        <v>3083.3333333333335</v>
+        <v>3050</v>
       </c>
       <c r="D224">
         <f t="shared" si="5"/>
-        <v>-379.52869749333286</v>
+        <v>-2215.6077075978701</v>
       </c>
       <c r="E224">
         <f t="shared" si="6"/>
@@ -5098,11 +5098,11 @@
       </c>
       <c r="F224">
         <f t="shared" si="8"/>
-        <v>-201.27217146331373</v>
+        <v>-1174.9840719934275</v>
       </c>
       <c r="G224">
         <f t="shared" si="10"/>
-        <v>-3147.8365064775844</v>
+        <v>-13518.108666046737</v>
       </c>
       <c r="J224"/>
       <c r="M224"/>
@@ -5113,15 +5113,15 @@
       </c>
       <c r="B225">
         <f t="shared" si="9"/>
-        <v>2692.4441121600003</v>
+        <v>830.88644243405361</v>
       </c>
       <c r="C225">
         <f t="shared" si="7"/>
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="D225">
         <f t="shared" si="5"/>
-        <v>2512.4441121600003</v>
+        <v>670.88644243405361</v>
       </c>
       <c r="E225">
         <f t="shared" si="6"/>
@@ -5129,11 +5129,11 @@
       </c>
       <c r="F225">
         <f t="shared" si="8"/>
-        <v>1268.9550047442951</v>
+        <v>338.84324217261349</v>
       </c>
       <c r="G225">
         <f t="shared" si="10"/>
-        <v>-1878.8815017332893</v>
+        <v>-13179.265423874123</v>
       </c>
       <c r="J225"/>
       <c r="M225"/>
@@ -5144,7 +5144,7 @@
       </c>
       <c r="B226">
         <f t="shared" si="9"/>
-        <v>2681.0835884800008</v>
+        <v>827.38059246597754</v>
       </c>
       <c r="C226">
         <f>$E$204+IF(ISEVEN(A226),$E$205,0)+E206</f>
@@ -5152,7 +5152,7 @@
       </c>
       <c r="D226">
         <f t="shared" si="5"/>
-        <v>2381.0835884800008</v>
+        <v>527.38059246597754</v>
       </c>
       <c r="E226">
         <f t="shared" si="6"/>
@@ -5160,11 +5160,11 @@
       </c>
       <c r="F226">
         <f t="shared" si="8"/>
-        <v>1145.3419180426838</v>
+        <v>253.67908217748109</v>
       </c>
       <c r="G226">
         <f t="shared" si="10"/>
-        <v>-733.53958369060547</v>
+        <v>-12925.586341696642</v>
       </c>
       <c r="J226"/>
       <c r="M226"/>
@@ -5175,15 +5175,15 @@
       </c>
       <c r="B227">
         <f t="shared" si="9"/>
-        <v>2669.7230648000004</v>
+        <v>823.87474249790137</v>
       </c>
       <c r="C227">
         <f t="shared" si="7"/>
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="D227">
         <f t="shared" si="5"/>
-        <v>2489.7230648000004</v>
+        <v>663.87474249790137</v>
       </c>
       <c r="E227">
         <f t="shared" si="6"/>
@@ -5191,11 +5191,11 @@
       </c>
       <c r="F227">
         <f t="shared" si="8"/>
-        <v>1140.5708225526216</v>
+        <v>304.12866869736251</v>
       </c>
       <c r="G227">
         <f t="shared" si="10"/>
-        <v>407.03123886201615</v>
+        <v>-12621.45767299928</v>
       </c>
       <c r="J227"/>
       <c r="M227"/>
@@ -5206,7 +5206,7 @@
       </c>
       <c r="B228">
         <f t="shared" si="9"/>
-        <v>2658.3625411200005</v>
+        <v>820.36889252982508</v>
       </c>
       <c r="C228">
         <f t="shared" si="7"/>
@@ -5214,7 +5214,7 @@
       </c>
       <c r="D228">
         <f t="shared" si="5"/>
-        <v>2558.3625411200005</v>
+        <v>720.36889252982508</v>
       </c>
       <c r="E228">
         <f t="shared" si="6"/>
@@ -5222,11 +5222,11 @@
       </c>
       <c r="F228">
         <f t="shared" si="8"/>
-        <v>1116.2051023983518</v>
+        <v>314.2945616686643</v>
       </c>
       <c r="G228">
         <f t="shared" si="10"/>
-        <v>1523.2363412603679</v>
+        <v>-12307.163111330616</v>
       </c>
       <c r="J228"/>
       <c r="M228"/>
@@ -5237,15 +5237,15 @@
       </c>
       <c r="B229">
         <f t="shared" si="9"/>
-        <v>2647.0020174400006</v>
+        <v>816.8630425617489</v>
       </c>
       <c r="C229">
         <f>$E$204+IF(ISEVEN(A229),$E$205,0)+E206</f>
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="D229">
         <f t="shared" si="5"/>
-        <v>2267.0020174400006</v>
+        <v>456.8630425617489</v>
       </c>
       <c r="E229">
         <f t="shared" si="6"/>
@@ -5253,11 +5253,11 @@
       </c>
       <c r="F229">
         <f t="shared" si="8"/>
-        <v>941.98616287257448</v>
+        <v>189.83603063000871</v>
       </c>
       <c r="G229">
         <f t="shared" si="10"/>
-        <v>2465.2225041329425</v>
+        <v>-12117.327080700607</v>
       </c>
       <c r="J229"/>
       <c r="M229"/>
@@ -5268,7 +5268,7 @@
       </c>
       <c r="B230">
         <f>($E$200+$E$202+$E$203)*(100-0.4*(A230-1))/100</f>
-        <v>2635.6414937600002</v>
+        <v>813.35719259367261</v>
       </c>
       <c r="C230">
         <f t="shared" si="7"/>
@@ -5276,7 +5276,7 @@
       </c>
       <c r="D230">
         <f t="shared" si="5"/>
-        <v>2535.6414937600002</v>
+        <v>713.35719259367261</v>
       </c>
       <c r="E230">
         <f t="shared" si="6"/>
@@ -5284,11 +5284,11 @@
       </c>
       <c r="F230">
         <f t="shared" si="8"/>
-        <v>1003.4394419012557</v>
+        <v>282.29966459138296</v>
       </c>
       <c r="G230">
         <f>G229+F230</f>
-        <v>3468.6619460341981</v>
+        <v>-11835.027416109224</v>
       </c>
       <c r="J230"/>
       <c r="M230"/>
@@ -5299,15 +5299,15 @@
       </c>
       <c r="B231">
         <f>($E$200+$E$202+$E$203)*(100-0.4*(A231-1))/100</f>
-        <v>2624.2809700800008</v>
+        <v>809.85134262559654</v>
       </c>
       <c r="C231">
         <f t="shared" si="7"/>
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="D231">
         <f t="shared" si="5"/>
-        <v>2444.2809700800008</v>
+        <v>649.85134262559654</v>
       </c>
       <c r="E231">
         <f t="shared" si="6"/>
@@ -5315,11 +5315,11 @@
       </c>
       <c r="F231">
         <f>D231*E231</f>
-        <v>921.22379080976782</v>
+        <v>244.92213646648622</v>
       </c>
       <c r="G231">
         <f t="shared" si="10"/>
-        <v>4389.8857368439658</v>
+        <v>-11590.105279642738</v>
       </c>
       <c r="J231"/>
       <c r="M231"/>
@@ -5330,7 +5330,7 @@
       </c>
       <c r="B232">
         <f>($E$201+$E$202+$E$203)*(100-0.4*(A232-1))/100</f>
-        <v>2608.1217264000002</v>
+        <v>807.88556435999999</v>
       </c>
       <c r="C232">
         <f>$E$204+IF(ISEVEN(A232),$E$205,0)+E206</f>
@@ -5338,7 +5338,7 @@
       </c>
       <c r="D232">
         <f t="shared" si="5"/>
-        <v>2308.1217264000002</v>
+        <v>507.88556435999999</v>
       </c>
       <c r="E232">
         <f t="shared" si="6"/>
@@ -5346,11 +5346,11 @@
       </c>
       <c r="F232">
         <f t="shared" si="8"/>
-        <v>828.48267035317474</v>
+        <v>182.3016454383833</v>
       </c>
       <c r="G232">
         <f t="shared" si="10"/>
-        <v>5218.3684071971402</v>
+        <v>-11407.803634204354</v>
       </c>
       <c r="J232"/>
       <c r="M232"/>
@@ -5361,15 +5361,15 @@
       </c>
       <c r="B233">
         <f t="shared" ref="B233:B241" si="11">($E$201+$E$202+$E$203)*(100-0.4*(A233-1))/100</f>
-        <v>2596.7820667199999</v>
+        <v>804.37301842799991</v>
       </c>
       <c r="C233">
         <f t="shared" si="7"/>
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="D233">
         <f t="shared" si="5"/>
-        <v>2416.7820667199999</v>
+        <v>644.37301842799991</v>
       </c>
       <c r="E233">
         <f t="shared" si="6"/>
@@ -5377,11 +5377,11 @@
       </c>
       <c r="F233">
         <f t="shared" si="8"/>
-        <v>826.17663795269164</v>
+        <v>220.2788332813092</v>
       </c>
       <c r="G233">
         <f t="shared" si="10"/>
-        <v>6044.5450451498318</v>
+        <v>-11187.524800923045</v>
       </c>
       <c r="J233"/>
       <c r="M233"/>
@@ -5392,7 +5392,7 @@
       </c>
       <c r="B234">
         <f t="shared" si="11"/>
-        <v>2585.44240704</v>
+        <v>800.86047249600006</v>
       </c>
       <c r="C234">
         <f t="shared" si="7"/>
@@ -5400,7 +5400,7 @@
       </c>
       <c r="D234">
         <f t="shared" si="5"/>
-        <v>2485.44240704</v>
+        <v>700.86047249600006</v>
       </c>
       <c r="E234">
         <f t="shared" si="6"/>
@@ -5408,11 +5408,11 @@
       </c>
       <c r="F234">
         <f t="shared" si="8"/>
-        <v>809.18872994271146</v>
+        <v>228.18005921187282</v>
       </c>
       <c r="G234">
         <f t="shared" si="10"/>
-        <v>6853.7337750925435</v>
+        <v>-10959.344741711173</v>
       </c>
       <c r="J234"/>
       <c r="M234"/>
@@ -5423,15 +5423,15 @@
       </c>
       <c r="B235">
         <f t="shared" si="11"/>
-        <v>2574.1027473600002</v>
+        <v>797.34792656399998</v>
       </c>
       <c r="C235">
         <f>$E$204+IF(ISEVEN(A235),$E$205,0)+E206</f>
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="D235">
         <f t="shared" si="5"/>
-        <v>2194.1027473600002</v>
+        <v>437.34792656399998</v>
       </c>
       <c r="E235">
         <f t="shared" si="6"/>
@@ -5439,11 +5439,11 @@
       </c>
       <c r="F235">
         <f t="shared" si="8"/>
-        <v>680.32085381933689</v>
+        <v>135.60755765614945</v>
       </c>
       <c r="G235">
         <f t="shared" si="10"/>
-        <v>7534.0546289118802</v>
+        <v>-10823.737184055024</v>
       </c>
       <c r="J235"/>
       <c r="M235"/>
@@ -5454,15 +5454,15 @@
       </c>
       <c r="B236">
         <f t="shared" si="11"/>
-        <v>2562.7630876800004</v>
+        <v>793.83538063200001</v>
       </c>
       <c r="C236">
         <f>$E$204+IF(ISEVEN(A236),$E$205,0)+E207</f>
-        <v>3083.3333333333335</v>
+        <v>3050</v>
       </c>
       <c r="D236">
         <f t="shared" si="5"/>
-        <v>-520.57024565333313</v>
+        <v>-2256.1646193679999</v>
       </c>
       <c r="E236">
         <f t="shared" si="6"/>
@@ -5470,11 +5470,11 @@
       </c>
       <c r="F236">
         <f t="shared" si="8"/>
-        <v>-153.72583640481417</v>
+        <v>-666.25166550579672</v>
       </c>
       <c r="G236">
         <f t="shared" si="10"/>
-        <v>7380.3287925070663</v>
+        <v>-11489.988849560821</v>
       </c>
       <c r="J236"/>
       <c r="M236"/>
@@ -5485,15 +5485,15 @@
       </c>
       <c r="B237">
         <f t="shared" si="11"/>
-        <v>2551.4234280000001</v>
+        <v>790.32283469999993</v>
       </c>
       <c r="C237">
         <f t="shared" si="7"/>
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="D237">
         <f t="shared" si="5"/>
-        <v>2371.4234280000001</v>
+        <v>630.32283469999993</v>
       </c>
       <c r="E237">
         <f t="shared" si="6"/>
@@ -5501,11 +5501,11 @@
       </c>
       <c r="F237">
         <f t="shared" si="8"/>
-        <v>666.94086776896029</v>
+        <v>177.27245728695266</v>
       </c>
       <c r="G237">
         <f t="shared" si="10"/>
-        <v>8047.2696602760261</v>
+        <v>-11312.716392273869</v>
       </c>
       <c r="J237"/>
       <c r="M237"/>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="B238">
         <f t="shared" si="11"/>
-        <v>2540.0837683200002</v>
+        <v>786.81028876799985</v>
       </c>
       <c r="C238">
         <f>$E$204+IF(ISEVEN(A238),$E$205,0)+E206</f>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="D238">
         <f t="shared" si="5"/>
-        <v>2240.0837683200002</v>
+        <v>486.81028876799985</v>
       </c>
       <c r="E238">
         <f t="shared" si="6"/>
@@ -5532,11 +5532,11 @@
       </c>
       <c r="F238">
         <f t="shared" si="8"/>
-        <v>600.00267176422994</v>
+        <v>130.39131751852906</v>
       </c>
       <c r="G238">
         <f t="shared" si="10"/>
-        <v>8647.2723320402565</v>
+        <v>-11182.325074755339</v>
       </c>
       <c r="I238" s="1" t="s">
         <v>218</v>
@@ -5544,7 +5544,7 @@
       <c r="J238" s="1"/>
       <c r="K238" s="1">
         <f>IF(G211&gt;0,A211,IF(G212&gt;0,A212,IF(G213&gt;0,A213,IF(G214&gt;0,A214,IF(G215&gt;0,A215,IF(G216&gt;0,A216,IF(G217&gt;0,A217,IF(G218&gt;0,A218,IF(G219&gt;0,A219, IF(G220&gt;0,A220, IF(G221&gt;0,A221,IF(G222&gt;0,A222,IF(G223&gt;0,763,IF(G224&gt;0,A224,IF(G225&gt;0,A225,IF(G226&gt;0,A226,IF(G227&gt;0,A227,IF(G228&gt;0,A228,IF(G229&gt;0,A229, IF(G230&gt;0,A230, IF(G231&gt;0,A231,IF(G232&gt;0,A232,IF(G233&gt;0,A233,IF(G234&gt;0,A234,IF(G235&gt;0,A235,IF(G236&gt;0,A236,IF(G237&gt;0,A237,IF(G238&gt;0,A238,IF(G239&gt;0,A239, IF(G240&gt;0,A240, IF(G241&gt;0,A241, 0)))))))))))))))))))))))))))))))</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M238"/>
     </row>
@@ -5554,15 +5554,15 @@
       </c>
       <c r="B239">
         <f t="shared" si="11"/>
-        <v>2528.7441086400004</v>
+        <v>783.297742836</v>
       </c>
       <c r="C239">
         <f t="shared" si="7"/>
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="D239">
         <f t="shared" si="5"/>
-        <v>2348.7441086400004</v>
+        <v>623.297742836</v>
       </c>
       <c r="E239">
         <f t="shared" si="6"/>
@@ -5570,11 +5570,11 @@
       </c>
       <c r="F239">
         <f t="shared" si="8"/>
-        <v>599.1496773913675</v>
+        <v>158.99928824310962</v>
       </c>
       <c r="G239">
         <f t="shared" si="10"/>
-        <v>9246.4220094316242</v>
+        <v>-11023.32578651223</v>
       </c>
       <c r="I239" s="1"/>
       <c r="J239" s="1"/>
@@ -5587,7 +5587,7 @@
       </c>
       <c r="B240">
         <f t="shared" si="11"/>
-        <v>2517.4044489600001</v>
+        <v>779.78519690400003</v>
       </c>
       <c r="C240">
         <f t="shared" si="7"/>
@@ -5595,7 +5595,7 @@
       </c>
       <c r="D240">
         <f t="shared" si="5"/>
-        <v>2417.4044489600001</v>
+        <v>679.78519690400003</v>
       </c>
       <c r="E240">
         <f t="shared" si="6"/>
@@ -5603,11 +5603,11 @@
       </c>
       <c r="F240">
         <f t="shared" si="8"/>
-        <v>587.29951745816959</v>
+        <v>165.15131271835102</v>
       </c>
       <c r="G240">
         <f t="shared" si="10"/>
-        <v>9833.7215268897944</v>
+        <v>-10858.174473793879</v>
       </c>
       <c r="J240"/>
       <c r="M240"/>
@@ -5618,15 +5618,15 @@
       </c>
       <c r="B241">
         <f t="shared" si="11"/>
-        <v>2506.0647892800002</v>
+        <v>776.27265097200006</v>
       </c>
       <c r="C241">
         <f>$E$204+IF(ISEVEN(A241),$E$205,0)+E206</f>
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="D241">
         <f t="shared" si="5"/>
-        <v>2126.0647892800002</v>
+        <v>416.27265097200006</v>
       </c>
       <c r="E241">
         <f t="shared" si="6"/>
@@ -5634,11 +5634,11 @@
       </c>
       <c r="F241">
         <f t="shared" si="8"/>
-        <v>491.92344662066108</v>
+        <v>96.316103927111897</v>
       </c>
       <c r="G241">
         <f t="shared" si="10"/>
-        <v>10325.644973510456</v>
+        <v>-10761.858369866766</v>
       </c>
       <c r="J241"/>
       <c r="M241"/>
@@ -5667,7 +5667,7 @@
       </c>
       <c r="D244">
         <f>G211</f>
-        <v>-25829.259259259263</v>
+        <v>-18250.455555555556</v>
       </c>
       <c r="J244" s="4"/>
     </row>
@@ -5677,7 +5677,7 @@
       </c>
       <c r="D245">
         <f>G212</f>
-        <v>-23219.610764021167</v>
+        <v>-17510.96746791837</v>
       </c>
       <c r="J245" s="4"/>
     </row>
@@ -5687,7 +5687,7 @@
       </c>
       <c r="D246">
         <f t="shared" ref="D246:D273" si="12">G213</f>
-        <v>-20817.097932891917</v>
+        <v>-16864.294776715677</v>
       </c>
       <c r="J246" s="4"/>
     </row>
@@ -5697,7 +5697,7 @@
       </c>
       <c r="D247">
         <f t="shared" si="12"/>
-        <v>-18642.464633991149</v>
+        <v>-16372.381772000945</v>
       </c>
       <c r="J247" s="4"/>
     </row>
@@ -5707,7 +5707,7 @@
       </c>
       <c r="D248">
         <f t="shared" si="12"/>
-        <v>-16482.007335676146</v>
+        <v>-15791.599121056275</v>
       </c>
       <c r="J248" s="4"/>
     </row>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="D249">
         <f t="shared" si="12"/>
-        <v>-14370.648130579113</v>
+        <v>-15194.208142020849</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.2">
@@ -5726,7 +5726,7 @@
       </c>
       <c r="D250">
         <f t="shared" si="12"/>
-        <v>-12577.247548752635</v>
+        <v>-14821.896474813298</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.2">
@@ -5735,7 +5735,7 @@
       </c>
       <c r="D251">
         <f t="shared" si="12"/>
-        <v>-10678.329934275624</v>
+        <v>-14285.02833090035</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.2">
@@ -5744,7 +5744,7 @@
       </c>
       <c r="D252">
         <f t="shared" si="12"/>
-        <v>-8931.6733666692198</v>
+        <v>-13816.708595675023</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.2">
@@ -5753,7 +5753,7 @@
       </c>
       <c r="D253">
         <f t="shared" si="12"/>
-        <v>-7352.8670861329547</v>
+        <v>-13463.194950641167</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.2">
@@ -5762,7 +5762,7 @@
       </c>
       <c r="D254">
         <f t="shared" si="12"/>
-        <v>-5782.5468426802217</v>
+        <v>-13042.719720968782</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.2">
@@ -5771,7 +5771,7 @@
       </c>
       <c r="D255">
         <f t="shared" si="12"/>
-        <v>-4246.8716734595764</v>
+        <v>-12609.236161802588</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.2">
@@ -5780,7 +5780,7 @@
       </c>
       <c r="D256">
         <f t="shared" si="12"/>
-        <v>-2946.5643350142705</v>
+        <v>-12343.12459405331</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
@@ -5789,7 +5789,7 @@
       </c>
       <c r="D257">
         <f t="shared" si="12"/>
-        <v>-3147.8365064775844</v>
+        <v>-13518.108666046737</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
@@ -5798,7 +5798,7 @@
       </c>
       <c r="D258">
         <f t="shared" si="12"/>
-        <v>-1878.8815017332893</v>
+        <v>-13179.265423874123</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
@@ -5807,7 +5807,7 @@
       </c>
       <c r="D259">
         <f t="shared" si="12"/>
-        <v>-733.53958369060547</v>
+        <v>-12925.586341696642</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
@@ -5816,7 +5816,7 @@
       </c>
       <c r="D260">
         <f>G227</f>
-        <v>407.03123886201615</v>
+        <v>-12621.45767299928</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
@@ -5825,7 +5825,7 @@
       </c>
       <c r="D261">
         <f t="shared" si="12"/>
-        <v>1523.2363412603679</v>
+        <v>-12307.163111330616</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
@@ -5834,7 +5834,7 @@
       </c>
       <c r="D262">
         <f t="shared" si="12"/>
-        <v>2465.2225041329425</v>
+        <v>-12117.327080700607</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
@@ -5843,7 +5843,7 @@
       </c>
       <c r="D263">
         <f t="shared" si="12"/>
-        <v>3468.6619460341981</v>
+        <v>-11835.027416109224</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
@@ -5852,7 +5852,7 @@
       </c>
       <c r="D264">
         <f t="shared" si="12"/>
-        <v>4389.8857368439658</v>
+        <v>-11590.105279642738</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
@@ -5861,7 +5861,7 @@
       </c>
       <c r="D265">
         <f t="shared" si="12"/>
-        <v>5218.3684071971402</v>
+        <v>-11407.803634204354</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
@@ -5870,7 +5870,7 @@
       </c>
       <c r="D266">
         <f t="shared" si="12"/>
-        <v>6044.5450451498318</v>
+        <v>-11187.524800923045</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
@@ -5879,7 +5879,7 @@
       </c>
       <c r="D267">
         <f t="shared" si="12"/>
-        <v>6853.7337750925435</v>
+        <v>-10959.344741711173</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
@@ -5888,7 +5888,7 @@
       </c>
       <c r="D268">
         <f t="shared" si="12"/>
-        <v>7534.0546289118802</v>
+        <v>-10823.737184055024</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
@@ -5897,7 +5897,7 @@
       </c>
       <c r="D269">
         <f t="shared" si="12"/>
-        <v>7380.3287925070663</v>
+        <v>-11489.988849560821</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="D270">
         <f t="shared" si="12"/>
-        <v>8047.2696602760261</v>
+        <v>-11312.716392273869</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
@@ -5915,7 +5915,7 @@
       </c>
       <c r="D271">
         <f t="shared" si="12"/>
-        <v>8647.2723320402565</v>
+        <v>-11182.325074755339</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
@@ -5924,7 +5924,7 @@
       </c>
       <c r="D272">
         <f t="shared" si="12"/>
-        <v>9246.4220094316242</v>
+        <v>-11023.32578651223</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
@@ -5933,7 +5933,7 @@
       </c>
       <c r="D273">
         <f t="shared" si="12"/>
-        <v>9833.7215268897944</v>
+        <v>-10858.174473793879</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
@@ -5942,7 +5942,7 @@
       </c>
       <c r="D274">
         <f>G241</f>
-        <v>10325.644973510456</v>
+        <v>-10761.858369866766</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
@@ -5951,7 +5951,7 @@
       </c>
       <c r="D275">
         <f>ROUND(C211,2)</f>
-        <v>25829.26</v>
+        <v>18250.46</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
@@ -5960,7 +5960,7 @@
       </c>
       <c r="D276">
         <f>K238</f>
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6013,7 +6013,7 @@
       </c>
       <c r="D2">
         <f>'calculation-sheet'!$D244</f>
-        <v>-25829.259259259263</v>
+        <v>-18250.455555555556</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="D3">
         <f>'calculation-sheet'!G212</f>
-        <v>-23219.610764021167</v>
+        <v>-17510.96746791837</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -6037,7 +6037,7 @@
       </c>
       <c r="D4">
         <f>'calculation-sheet'!D246</f>
-        <v>-20817.097932891917</v>
+        <v>-16864.294776715677</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -6049,7 +6049,7 @@
       </c>
       <c r="D5">
         <f>'calculation-sheet'!D247</f>
-        <v>-18642.464633991149</v>
+        <v>-16372.381772000945</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="D6">
         <f>'calculation-sheet'!D248</f>
-        <v>-16482.007335676146</v>
+        <v>-15791.599121056275</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="D7">
         <f>'calculation-sheet'!D249</f>
-        <v>-14370.648130579113</v>
+        <v>-15194.208142020849</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -6085,7 +6085,7 @@
       </c>
       <c r="D8">
         <f>'calculation-sheet'!D250</f>
-        <v>-12577.247548752635</v>
+        <v>-14821.896474813298</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6097,7 +6097,7 @@
       </c>
       <c r="D9">
         <f>'calculation-sheet'!D251</f>
-        <v>-10678.329934275624</v>
+        <v>-14285.02833090035</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -6109,7 +6109,7 @@
       </c>
       <c r="D10">
         <f>'calculation-sheet'!D252</f>
-        <v>-8931.6733666692198</v>
+        <v>-13816.708595675023</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="D11">
         <f>'calculation-sheet'!D253</f>
-        <v>-7352.8670861329547</v>
+        <v>-13463.194950641167</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -6133,7 +6133,7 @@
       </c>
       <c r="D12">
         <f>'calculation-sheet'!D254</f>
-        <v>-5782.5468426802217</v>
+        <v>-13042.719720968782</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -6145,7 +6145,7 @@
       </c>
       <c r="D13">
         <f>'calculation-sheet'!D255</f>
-        <v>-4246.8716734595764</v>
+        <v>-12609.236161802588</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -6157,7 +6157,7 @@
       </c>
       <c r="D14">
         <f>'calculation-sheet'!D256</f>
-        <v>-2946.5643350142705</v>
+        <v>-12343.12459405331</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="D15">
         <f>'calculation-sheet'!D257</f>
-        <v>-3147.8365064775844</v>
+        <v>-13518.108666046737</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -6181,7 +6181,7 @@
       </c>
       <c r="D16">
         <f>'calculation-sheet'!D258</f>
-        <v>-1878.8815017332893</v>
+        <v>-13179.265423874123</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -6193,7 +6193,7 @@
       </c>
       <c r="D17">
         <f>'calculation-sheet'!D259</f>
-        <v>-733.53958369060547</v>
+        <v>-12925.586341696642</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="D18">
         <f>'calculation-sheet'!D260</f>
-        <v>407.03123886201615</v>
+        <v>-12621.45767299928</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="D19">
         <f>'calculation-sheet'!D261</f>
-        <v>1523.2363412603679</v>
+        <v>-12307.163111330616</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -6229,7 +6229,7 @@
       </c>
       <c r="D20">
         <f>'calculation-sheet'!D262</f>
-        <v>2465.2225041329425</v>
+        <v>-12117.327080700607</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="D21">
         <f>'calculation-sheet'!D263</f>
-        <v>3468.6619460341981</v>
+        <v>-11835.027416109224</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -6253,7 +6253,7 @@
       </c>
       <c r="D22">
         <f>'calculation-sheet'!D264</f>
-        <v>4389.8857368439658</v>
+        <v>-11590.105279642738</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="D23">
         <f>'calculation-sheet'!D265</f>
-        <v>5218.3684071971402</v>
+        <v>-11407.803634204354</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -6277,7 +6277,7 @@
       </c>
       <c r="D24">
         <f>'calculation-sheet'!D266</f>
-        <v>6044.5450451498318</v>
+        <v>-11187.524800923045</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -6289,7 +6289,7 @@
       </c>
       <c r="D25">
         <f>'calculation-sheet'!D267</f>
-        <v>6853.7337750925435</v>
+        <v>-10959.344741711173</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -6301,7 +6301,7 @@
       </c>
       <c r="D26">
         <f>'calculation-sheet'!D268</f>
-        <v>7534.0546289118802</v>
+        <v>-10823.737184055024</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="D27">
         <f>'calculation-sheet'!D269</f>
-        <v>7380.3287925070663</v>
+        <v>-11489.988849560821</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -6325,7 +6325,7 @@
       </c>
       <c r="D28">
         <f>'calculation-sheet'!D270</f>
-        <v>8047.2696602760261</v>
+        <v>-11312.716392273869</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -6337,7 +6337,7 @@
       </c>
       <c r="D29">
         <f>'calculation-sheet'!D271</f>
-        <v>8647.2723320402565</v>
+        <v>-11182.325074755339</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -6349,7 +6349,7 @@
       </c>
       <c r="D30">
         <f>'calculation-sheet'!D272</f>
-        <v>9246.4220094316242</v>
+        <v>-11023.32578651223</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="D31">
         <f>'calculation-sheet'!D273</f>
-        <v>9833.7215268897944</v>
+        <v>-10858.174473793879</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -6373,7 +6373,7 @@
       </c>
       <c r="D32">
         <f>'calculation-sheet'!D274</f>
-        <v>10325.644973510456</v>
+        <v>-10761.858369866766</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -6385,7 +6385,7 @@
       </c>
       <c r="D33">
         <f>'calculation-sheet'!D275</f>
-        <v>25829.26</v>
+        <v>18250.46</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -6397,7 +6397,7 @@
       </c>
       <c r="D34">
         <f>'calculation-sheet'!K238</f>
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
